--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem2/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem2/67/word_level_predictions_67.xlsx
@@ -502,156 +502,156 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>IMU calibration required Calibrate IMU .</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>IMU</t>
         </is>
       </c>
-      <c r="D2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2" t="inlineStr">
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" s="2" t="inlineStr">
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="A3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>IMU calibration required Calibrate IMU .</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>calibration</t>
         </is>
       </c>
-      <c r="D3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G3" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" s="2" t="inlineStr">
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2" t="inlineStr">
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="A4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>IMU calibration required Calibrate IMU .</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>required</t>
         </is>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" t="n">
         <v>2</v>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -681,7 +681,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G5" s="2" t="b">
@@ -693,11 +693,11 @@
         </is>
       </c>
       <c r="I5" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K5" s="2" t="b">
@@ -993,7 +993,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G11" s="2" t="b">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G12" s="2" t="b">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G13" s="2" t="b">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G14" s="2" t="b">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G15" s="2" t="b">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -1513,7 +1513,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G21" s="2" t="b">
@@ -1537,161 +1537,161 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B22" s="2" t="inlineStr">
+      <c r="A22" t="n">
+        <v>1</v>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C22" s="2" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>Fly</t>
         </is>
       </c>
-      <c r="D22" s="2" t="n">
+      <c r="D22" t="n">
         <v>14</v>
       </c>
-      <c r="E22" s="2" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L22" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K22" t="b">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B23" s="2" t="inlineStr">
+      <c r="A23" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C23" s="2" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>with</t>
         </is>
       </c>
-      <c r="D23" s="2" t="n">
+      <c r="D23" t="n">
         <v>15</v>
       </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L23" s="2" t="inlineStr">
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K23" t="b">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B24" s="2" t="inlineStr">
+      <c r="A24" t="n">
+        <v>1</v>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C24" s="2" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>caution</t>
         </is>
       </c>
-      <c r="D24" s="2" t="n">
+      <c r="D24" t="n">
         <v>16</v>
       </c>
-      <c r="E24" s="2" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F24" s="2" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G24" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L24" s="2" t="inlineStr">
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K24" t="b">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -1750,470 +1750,470 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
+      <c r="A26" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" s="2" t="inlineStr">
         <is>
           <t>Critical low battery Return to home or land promptly .</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C26" s="2" t="inlineStr">
         <is>
           <t>Critical</t>
         </is>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="inlineStr">
+      <c r="D26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F26" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G26" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26" t="inlineStr">
+      <c r="G26" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I26" t="b">
-        <v>1</v>
-      </c>
-      <c r="J26" t="inlineStr">
+      <c r="I26" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>Critical low battery Return to home or land promptly .</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K26" t="b">
-        <v>1</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+      <c r="I27" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B28" s="2" t="inlineStr">
         <is>
           <t>Critical low battery Return to home or land promptly .</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" t="inlineStr">
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>battery</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G27" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" t="inlineStr">
+      <c r="G28" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I27" t="b">
-        <v>1</v>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K27" t="b">
-        <v>1</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="I28" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
         <v>2</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>Critical low battery Return to home or land promptly .</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>battery</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Return</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>3</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I29" t="b">
+        <v>1</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K29" t="b">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
         <v>2</v>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G28" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I28" t="b">
-        <v>1</v>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K28" t="b">
-        <v>1</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Critical low battery Return to home or land promptly .</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>4</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I30" t="b">
+        <v>1</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K30" t="b">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
         <v>2</v>
       </c>
-      <c r="B29" s="2" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>Critical low battery Return to home or land promptly .</t>
         </is>
       </c>
-      <c r="C29" s="2" t="inlineStr">
-        <is>
-          <t>Return</t>
-        </is>
-      </c>
-      <c r="D29" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F29" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G29" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I29" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J29" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K29" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L29" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>home</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>5</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I31" t="b">
+        <v>1</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K31" t="b">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
         <v>2</v>
       </c>
-      <c r="B30" s="2" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t>Critical low battery Return to home or land promptly .</t>
         </is>
       </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>to</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F30" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G30" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I30" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J30" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K30" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L30" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>or</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>6</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G32" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I32" t="b">
+        <v>1</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K32" t="b">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
         <v>2</v>
       </c>
-      <c r="B31" s="2" t="inlineStr">
+      <c r="B33" t="inlineStr">
         <is>
           <t>Critical low battery Return to home or land promptly .</t>
         </is>
       </c>
-      <c r="C31" s="2" t="inlineStr">
-        <is>
-          <t>home</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G31" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J31" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K31" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L31" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>land</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>7</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G33" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I33" t="b">
+        <v>1</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K33" t="b">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
         <v>2</v>
       </c>
-      <c r="B32" s="2" t="inlineStr">
+      <c r="B34" t="inlineStr">
         <is>
           <t>Critical low battery Return to home or land promptly .</t>
         </is>
       </c>
-      <c r="C32" s="2" t="inlineStr">
-        <is>
-          <t>or</t>
-        </is>
-      </c>
-      <c r="D32" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="E32" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F32" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G32" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H32" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I32" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J32" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K32" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L32" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B33" s="2" t="inlineStr">
-        <is>
-          <t>Critical low battery Return to home or land promptly .</t>
-        </is>
-      </c>
-      <c r="C33" s="2" t="inlineStr">
-        <is>
-          <t>land</t>
-        </is>
-      </c>
-      <c r="D33" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E33" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F33" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G33" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I33" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J33" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K33" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L33" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B34" s="2" t="inlineStr">
-        <is>
-          <t>Critical low battery Return to home or land promptly .</t>
-        </is>
-      </c>
-      <c r="C34" s="2" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>promptly</t>
         </is>
       </c>
-      <c r="D34" s="2" t="n">
+      <c r="D34" t="n">
         <v>8</v>
       </c>
-      <c r="E34" s="2" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F34" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G34" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I34" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J34" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K34" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L34" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G34" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I34" t="b">
+        <v>1</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K34" t="b">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -2345,7 +2345,7 @@
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G37" s="2" t="b">
@@ -2369,7 +2369,7 @@
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -2397,7 +2397,7 @@
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G38" s="2" t="b">
@@ -2421,7 +2421,7 @@
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>Missed_E-Event</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -2894,158 +2894,158 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
+      <c r="A48" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C48" s="2" t="inlineStr">
         <is>
           <t>RTH</t>
         </is>
       </c>
-      <c r="D48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" t="inlineStr">
+      <c r="D48" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="F48" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G48" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I48" t="b">
-        <v>1</v>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K48" t="b">
-        <v>1</v>
-      </c>
-      <c r="L48" t="inlineStr">
+      <c r="G48" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L48" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
+      <c r="A49" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C49" s="2" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D49" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G49" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I49" t="b">
-        <v>1</v>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K49" t="b">
-        <v>1</v>
-      </c>
-      <c r="L49" t="inlineStr">
+      <c r="D49" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L49" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
+      <c r="A50" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C50" s="2" t="inlineStr">
         <is>
           <t>98FT</t>
         </is>
       </c>
-      <c r="D50" t="n">
+      <c r="D50" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="E50" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G50" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I50" t="b">
-        <v>1</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K50" t="b">
-        <v>1</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L50" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -4246,156 +4246,156 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="2" t="n">
+      <c r="A74" t="n">
         <v>7</v>
       </c>
-      <c r="B74" s="2" t="inlineStr">
+      <c r="B74" t="inlineStr">
         <is>
           <t>Visual positioning inaccurate Fly with caution .</t>
         </is>
       </c>
-      <c r="C74" s="2" t="inlineStr">
+      <c r="C74" t="inlineStr">
         <is>
           <t>Fly</t>
         </is>
       </c>
-      <c r="D74" s="2" t="n">
+      <c r="D74" t="n">
         <v>3</v>
       </c>
-      <c r="E74" s="2" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F74" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G74" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H74" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I74" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J74" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K74" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L74" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G74" t="b">
+        <v>1</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I74" t="b">
+        <v>1</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K74" t="b">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="2" t="n">
+      <c r="A75" t="n">
         <v>7</v>
       </c>
-      <c r="B75" s="2" t="inlineStr">
+      <c r="B75" t="inlineStr">
         <is>
           <t>Visual positioning inaccurate Fly with caution .</t>
         </is>
       </c>
-      <c r="C75" s="2" t="inlineStr">
+      <c r="C75" t="inlineStr">
         <is>
           <t>with</t>
         </is>
       </c>
-      <c r="D75" s="2" t="n">
+      <c r="D75" t="n">
         <v>4</v>
       </c>
-      <c r="E75" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F75" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G75" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H75" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I75" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J75" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K75" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L75" s="2" t="inlineStr">
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G75" t="b">
+        <v>1</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I75" t="b">
+        <v>1</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K75" t="b">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="2" t="n">
+      <c r="A76" t="n">
         <v>7</v>
       </c>
-      <c r="B76" s="2" t="inlineStr">
+      <c r="B76" t="inlineStr">
         <is>
           <t>Visual positioning inaccurate Fly with caution .</t>
         </is>
       </c>
-      <c r="C76" s="2" t="inlineStr">
+      <c r="C76" t="inlineStr">
         <is>
           <t>caution</t>
         </is>
       </c>
-      <c r="D76" s="2" t="n">
+      <c r="D76" t="n">
         <v>5</v>
       </c>
-      <c r="E76" s="2" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F76" s="2" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G76" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H76" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I76" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J76" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K76" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L76" s="2" t="inlineStr">
+      <c r="G76" t="b">
+        <v>1</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I76" t="b">
+        <v>1</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K76" t="b">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="F79" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G79" s="2" t="b">
@@ -4553,7 +4553,7 @@
       </c>
       <c r="L79" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -4581,7 +4581,7 @@
       </c>
       <c r="F80" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G80" s="2" t="b">
@@ -4605,7 +4605,7 @@
       </c>
       <c r="L80" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -6118,156 +6118,156 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="2" t="n">
+      <c r="A110" t="n">
         <v>11</v>
       </c>
-      <c r="B110" s="2" t="inlineStr">
+      <c r="B110" t="inlineStr">
         <is>
           <t>Critical low battery Recharge promptly .</t>
         </is>
       </c>
-      <c r="C110" s="2" t="inlineStr">
+      <c r="C110" t="inlineStr">
         <is>
           <t>Critical</t>
         </is>
       </c>
-      <c r="D110" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E110" s="2" t="inlineStr">
+      <c r="D110" t="n">
+        <v>0</v>
+      </c>
+      <c r="E110" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F110" s="2" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G110" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H110" s="2" t="inlineStr">
+      <c r="G110" t="b">
+        <v>1</v>
+      </c>
+      <c r="H110" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I110" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J110" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K110" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L110" s="2" t="inlineStr">
+      <c r="I110" t="b">
+        <v>1</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K110" t="b">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="2" t="n">
+      <c r="A111" t="n">
         <v>11</v>
       </c>
-      <c r="B111" s="2" t="inlineStr">
+      <c r="B111" t="inlineStr">
         <is>
           <t>Critical low battery Recharge promptly .</t>
         </is>
       </c>
-      <c r="C111" s="2" t="inlineStr">
+      <c r="C111" t="inlineStr">
         <is>
           <t>low</t>
         </is>
       </c>
-      <c r="D111" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E111" s="2" t="inlineStr">
+      <c r="D111" t="n">
+        <v>1</v>
+      </c>
+      <c r="E111" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F111" s="2" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G111" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H111" s="2" t="inlineStr">
+      <c r="G111" t="b">
+        <v>1</v>
+      </c>
+      <c r="H111" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I111" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J111" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K111" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L111" s="2" t="inlineStr">
+      <c r="I111" t="b">
+        <v>1</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K111" t="b">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="2" t="n">
+      <c r="A112" t="n">
         <v>11</v>
       </c>
-      <c r="B112" s="2" t="inlineStr">
+      <c r="B112" t="inlineStr">
         <is>
           <t>Critical low battery Recharge promptly .</t>
         </is>
       </c>
-      <c r="C112" s="2" t="inlineStr">
+      <c r="C112" t="inlineStr">
         <is>
           <t>battery</t>
         </is>
       </c>
-      <c r="D112" s="2" t="n">
+      <c r="D112" t="n">
         <v>2</v>
       </c>
-      <c r="E112" s="2" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F112" s="2" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G112" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H112" s="2" t="inlineStr">
+      <c r="G112" t="b">
+        <v>1</v>
+      </c>
+      <c r="H112" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I112" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J112" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K112" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L112" s="2" t="inlineStr">
+      <c r="I112" t="b">
+        <v>1</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K112" t="b">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -6297,7 +6297,7 @@
       </c>
       <c r="F113" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G113" s="2" t="b">
@@ -6309,11 +6309,11 @@
         </is>
       </c>
       <c r="I113" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K113" s="2" t="b">
@@ -6349,7 +6349,7 @@
       </c>
       <c r="F114" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G114" s="2" t="b">
@@ -6373,7 +6373,7 @@
       </c>
       <c r="L114" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -6430,156 +6430,156 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="n">
+      <c r="A116" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B116" t="inlineStr">
+      <c r="B116" s="2" t="inlineStr">
         <is>
           <t>Vision sensor(s) blocked Fly with caution .</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
+      <c r="C116" s="2" t="inlineStr">
         <is>
           <t>Vision</t>
         </is>
       </c>
-      <c r="D116" t="n">
-        <v>0</v>
-      </c>
-      <c r="E116" t="inlineStr">
+      <c r="D116" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E116" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
+      <c r="F116" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G116" t="b">
-        <v>1</v>
-      </c>
-      <c r="H116" t="inlineStr">
+      <c r="G116" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H116" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I116" t="b">
-        <v>1</v>
-      </c>
-      <c r="J116" t="inlineStr">
+      <c r="I116" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J116" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K116" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L116" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B117" s="2" t="inlineStr">
+        <is>
+          <t>Vision sensor(s) blocked Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C117" s="2" t="inlineStr">
+        <is>
+          <t>sensor(s)</t>
+        </is>
+      </c>
+      <c r="D117" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E117" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F117" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G117" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H117" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K116" t="b">
-        <v>1</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="n">
+      <c r="I117" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J117" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K117" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L117" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B117" t="inlineStr">
+      <c r="B118" s="2" t="inlineStr">
         <is>
           <t>Vision sensor(s) blocked Fly with caution .</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>sensor(s)</t>
-        </is>
-      </c>
-      <c r="D117" t="n">
-        <v>1</v>
-      </c>
-      <c r="E117" t="inlineStr">
+      <c r="C118" s="2" t="inlineStr">
+        <is>
+          <t>blocked</t>
+        </is>
+      </c>
+      <c r="D118" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E118" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F118" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G117" t="b">
-        <v>1</v>
-      </c>
-      <c r="H117" t="inlineStr">
+      <c r="G118" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H118" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I117" t="b">
-        <v>1</v>
-      </c>
-      <c r="J117" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K117" t="b">
-        <v>1</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="n">
-        <v>12</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>Vision sensor(s) blocked Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>blocked</t>
-        </is>
-      </c>
-      <c r="D118" t="n">
-        <v>2</v>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G118" t="b">
-        <v>1</v>
-      </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I118" t="b">
-        <v>1</v>
-      </c>
-      <c r="J118" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K118" t="b">
-        <v>1</v>
-      </c>
-      <c r="L118" t="inlineStr">
+      <c r="I118" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J118" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K118" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L118" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -6609,7 +6609,7 @@
       </c>
       <c r="F119" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G119" s="2" t="b">
@@ -6621,11 +6621,11 @@
         </is>
       </c>
       <c r="I119" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K119" s="2" t="b">
@@ -6633,7 +6633,7 @@
       </c>
       <c r="L119" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -6661,7 +6661,7 @@
       </c>
       <c r="F120" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G120" s="2" t="b">
@@ -6673,11 +6673,11 @@
         </is>
       </c>
       <c r="I120" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K120" s="2" t="b">
@@ -6685,7 +6685,7 @@
       </c>
       <c r="L120" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6713,7 +6713,7 @@
       </c>
       <c r="F121" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G121" s="2" t="b">
@@ -6725,11 +6725,11 @@
         </is>
       </c>
       <c r="I121" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K121" s="2" t="b">
@@ -6737,7 +6737,7 @@
       </c>
       <c r="L121" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6898,676 +6898,676 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="2" t="n">
+      <c r="A125" t="n">
         <v>13</v>
       </c>
-      <c r="B125" s="2" t="inlineStr">
+      <c r="B125" t="inlineStr">
         <is>
           <t>Compass interference Please move the aircraft away from potential interference source or calibrate the compass .</t>
         </is>
       </c>
-      <c r="C125" s="2" t="inlineStr">
+      <c r="C125" t="inlineStr">
         <is>
           <t>Please</t>
         </is>
       </c>
-      <c r="D125" s="2" t="n">
+      <c r="D125" t="n">
         <v>2</v>
       </c>
-      <c r="E125" s="2" t="inlineStr">
+      <c r="E125" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F125" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G125" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H125" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I125" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J125" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K125" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L125" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G125" t="b">
+        <v>1</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I125" t="b">
+        <v>1</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K125" t="b">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="2" t="n">
+      <c r="A126" t="n">
         <v>13</v>
       </c>
-      <c r="B126" s="2" t="inlineStr">
+      <c r="B126" t="inlineStr">
         <is>
           <t>Compass interference Please move the aircraft away from potential interference source or calibrate the compass .</t>
         </is>
       </c>
-      <c r="C126" s="2" t="inlineStr">
+      <c r="C126" t="inlineStr">
         <is>
           <t>move</t>
         </is>
       </c>
-      <c r="D126" s="2" t="n">
+      <c r="D126" t="n">
         <v>3</v>
       </c>
-      <c r="E126" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F126" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G126" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H126" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I126" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J126" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K126" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L126" s="2" t="inlineStr">
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G126" t="b">
+        <v>1</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I126" t="b">
+        <v>1</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K126" t="b">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="2" t="n">
+      <c r="A127" t="n">
         <v>13</v>
       </c>
-      <c r="B127" s="2" t="inlineStr">
+      <c r="B127" t="inlineStr">
         <is>
           <t>Compass interference Please move the aircraft away from potential interference source or calibrate the compass .</t>
         </is>
       </c>
-      <c r="C127" s="2" t="inlineStr">
+      <c r="C127" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D127" s="2" t="n">
+      <c r="D127" t="n">
         <v>4</v>
       </c>
-      <c r="E127" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F127" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G127" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H127" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I127" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J127" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K127" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L127" s="2" t="inlineStr">
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G127" t="b">
+        <v>1</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I127" t="b">
+        <v>1</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K127" t="b">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="2" t="n">
+      <c r="A128" t="n">
         <v>13</v>
       </c>
-      <c r="B128" s="2" t="inlineStr">
+      <c r="B128" t="inlineStr">
         <is>
           <t>Compass interference Please move the aircraft away from potential interference source or calibrate the compass .</t>
         </is>
       </c>
-      <c r="C128" s="2" t="inlineStr">
+      <c r="C128" t="inlineStr">
         <is>
           <t>aircraft</t>
         </is>
       </c>
-      <c r="D128" s="2" t="n">
+      <c r="D128" t="n">
         <v>5</v>
       </c>
-      <c r="E128" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F128" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G128" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H128" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I128" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J128" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K128" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L128" s="2" t="inlineStr">
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G128" t="b">
+        <v>1</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I128" t="b">
+        <v>1</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K128" t="b">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="2" t="n">
+      <c r="A129" t="n">
         <v>13</v>
       </c>
-      <c r="B129" s="2" t="inlineStr">
+      <c r="B129" t="inlineStr">
         <is>
           <t>Compass interference Please move the aircraft away from potential interference source or calibrate the compass .</t>
         </is>
       </c>
-      <c r="C129" s="2" t="inlineStr">
+      <c r="C129" t="inlineStr">
         <is>
           <t>away</t>
         </is>
       </c>
-      <c r="D129" s="2" t="n">
+      <c r="D129" t="n">
         <v>6</v>
       </c>
-      <c r="E129" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F129" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G129" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H129" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I129" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J129" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K129" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L129" s="2" t="inlineStr">
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G129" t="b">
+        <v>1</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I129" t="b">
+        <v>1</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K129" t="b">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="2" t="n">
+      <c r="A130" t="n">
         <v>13</v>
       </c>
-      <c r="B130" s="2" t="inlineStr">
+      <c r="B130" t="inlineStr">
         <is>
           <t>Compass interference Please move the aircraft away from potential interference source or calibrate the compass .</t>
         </is>
       </c>
-      <c r="C130" s="2" t="inlineStr">
+      <c r="C130" t="inlineStr">
         <is>
           <t>from</t>
         </is>
       </c>
-      <c r="D130" s="2" t="n">
+      <c r="D130" t="n">
         <v>7</v>
       </c>
-      <c r="E130" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F130" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G130" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H130" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I130" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J130" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K130" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L130" s="2" t="inlineStr">
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G130" t="b">
+        <v>1</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I130" t="b">
+        <v>1</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K130" t="b">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="2" t="n">
+      <c r="A131" t="n">
         <v>13</v>
       </c>
-      <c r="B131" s="2" t="inlineStr">
+      <c r="B131" t="inlineStr">
         <is>
           <t>Compass interference Please move the aircraft away from potential interference source or calibrate the compass .</t>
         </is>
       </c>
-      <c r="C131" s="2" t="inlineStr">
+      <c r="C131" t="inlineStr">
         <is>
           <t>potential</t>
         </is>
       </c>
-      <c r="D131" s="2" t="n">
+      <c r="D131" t="n">
         <v>8</v>
       </c>
-      <c r="E131" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F131" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G131" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H131" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I131" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J131" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K131" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L131" s="2" t="inlineStr">
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G131" t="b">
+        <v>1</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I131" t="b">
+        <v>1</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K131" t="b">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="2" t="n">
+      <c r="A132" t="n">
         <v>13</v>
       </c>
-      <c r="B132" s="2" t="inlineStr">
+      <c r="B132" t="inlineStr">
         <is>
           <t>Compass interference Please move the aircraft away from potential interference source or calibrate the compass .</t>
         </is>
       </c>
-      <c r="C132" s="2" t="inlineStr">
+      <c r="C132" t="inlineStr">
         <is>
           <t>interference</t>
         </is>
       </c>
-      <c r="D132" s="2" t="n">
+      <c r="D132" t="n">
         <v>9</v>
       </c>
-      <c r="E132" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F132" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G132" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H132" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I132" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J132" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K132" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L132" s="2" t="inlineStr">
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G132" t="b">
+        <v>1</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I132" t="b">
+        <v>1</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K132" t="b">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="2" t="n">
+      <c r="A133" t="n">
         <v>13</v>
       </c>
-      <c r="B133" s="2" t="inlineStr">
+      <c r="B133" t="inlineStr">
         <is>
           <t>Compass interference Please move the aircraft away from potential interference source or calibrate the compass .</t>
         </is>
       </c>
-      <c r="C133" s="2" t="inlineStr">
+      <c r="C133" t="inlineStr">
         <is>
           <t>source</t>
         </is>
       </c>
-      <c r="D133" s="2" t="n">
+      <c r="D133" t="n">
         <v>10</v>
       </c>
-      <c r="E133" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F133" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G133" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H133" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I133" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J133" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K133" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L133" s="2" t="inlineStr">
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G133" t="b">
+        <v>1</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I133" t="b">
+        <v>1</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K133" t="b">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="2" t="n">
+      <c r="A134" t="n">
         <v>13</v>
       </c>
-      <c r="B134" s="2" t="inlineStr">
+      <c r="B134" t="inlineStr">
         <is>
           <t>Compass interference Please move the aircraft away from potential interference source or calibrate the compass .</t>
         </is>
       </c>
-      <c r="C134" s="2" t="inlineStr">
+      <c r="C134" t="inlineStr">
         <is>
           <t>or</t>
         </is>
       </c>
-      <c r="D134" s="2" t="n">
+      <c r="D134" t="n">
         <v>11</v>
       </c>
-      <c r="E134" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F134" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G134" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H134" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I134" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J134" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K134" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L134" s="2" t="inlineStr">
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G134" t="b">
+        <v>1</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I134" t="b">
+        <v>1</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K134" t="b">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="2" t="n">
+      <c r="A135" t="n">
         <v>13</v>
       </c>
-      <c r="B135" s="2" t="inlineStr">
+      <c r="B135" t="inlineStr">
         <is>
           <t>Compass interference Please move the aircraft away from potential interference source or calibrate the compass .</t>
         </is>
       </c>
-      <c r="C135" s="2" t="inlineStr">
+      <c r="C135" t="inlineStr">
         <is>
           <t>calibrate</t>
         </is>
       </c>
-      <c r="D135" s="2" t="n">
+      <c r="D135" t="n">
         <v>12</v>
       </c>
-      <c r="E135" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F135" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G135" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H135" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I135" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J135" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K135" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L135" s="2" t="inlineStr">
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G135" t="b">
+        <v>1</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I135" t="b">
+        <v>1</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K135" t="b">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="2" t="n">
+      <c r="A136" t="n">
         <v>13</v>
       </c>
-      <c r="B136" s="2" t="inlineStr">
+      <c r="B136" t="inlineStr">
         <is>
           <t>Compass interference Please move the aircraft away from potential interference source or calibrate the compass .</t>
         </is>
       </c>
-      <c r="C136" s="2" t="inlineStr">
+      <c r="C136" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D136" s="2" t="n">
+      <c r="D136" t="n">
         <v>13</v>
       </c>
-      <c r="E136" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F136" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G136" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H136" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I136" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J136" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K136" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L136" s="2" t="inlineStr">
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G136" t="b">
+        <v>1</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I136" t="b">
+        <v>1</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K136" t="b">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="2" t="n">
+      <c r="A137" t="n">
         <v>13</v>
       </c>
-      <c r="B137" s="2" t="inlineStr">
+      <c r="B137" t="inlineStr">
         <is>
           <t>Compass interference Please move the aircraft away from potential interference source or calibrate the compass .</t>
         </is>
       </c>
-      <c r="C137" s="2" t="inlineStr">
+      <c r="C137" t="inlineStr">
         <is>
           <t>compass</t>
         </is>
       </c>
-      <c r="D137" s="2" t="n">
+      <c r="D137" t="n">
         <v>14</v>
       </c>
-      <c r="E137" s="2" t="inlineStr">
+      <c r="E137" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F137" s="2" t="inlineStr">
+      <c r="F137" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G137" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H137" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I137" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J137" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K137" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L137" s="2" t="inlineStr">
+      <c r="G137" t="b">
+        <v>1</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I137" t="b">
+        <v>1</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K137" t="b">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -7990,416 +7990,416 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="2" t="n">
+      <c r="A146" t="n">
         <v>14</v>
       </c>
-      <c r="B146" s="2" t="inlineStr">
+      <c r="B146" t="inlineStr">
         <is>
           <t>Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C146" s="2" t="inlineStr">
+      <c r="C146" t="inlineStr">
         <is>
           <t>Lower</t>
         </is>
       </c>
-      <c r="D146" s="2" t="n">
+      <c r="D146" t="n">
         <v>7</v>
       </c>
-      <c r="E146" s="2" t="inlineStr">
+      <c r="E146" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F146" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G146" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H146" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I146" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J146" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K146" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L146" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G146" t="b">
+        <v>1</v>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I146" t="b">
+        <v>1</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K146" t="b">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="2" t="n">
+      <c r="A147" t="n">
         <v>14</v>
       </c>
-      <c r="B147" s="2" t="inlineStr">
+      <c r="B147" t="inlineStr">
         <is>
           <t>Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C147" s="2" t="inlineStr">
+      <c r="C147" t="inlineStr">
         <is>
           <t>altitude</t>
         </is>
       </c>
-      <c r="D147" s="2" t="n">
+      <c r="D147" t="n">
         <v>8</v>
       </c>
-      <c r="E147" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F147" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G147" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H147" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I147" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J147" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K147" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L147" s="2" t="inlineStr">
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G147" t="b">
+        <v>1</v>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I147" t="b">
+        <v>1</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K147" t="b">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="2" t="n">
+      <c r="A148" t="n">
         <v>14</v>
       </c>
-      <c r="B148" s="2" t="inlineStr">
+      <c r="B148" t="inlineStr">
         <is>
           <t>Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C148" s="2" t="inlineStr">
+      <c r="C148" t="inlineStr">
         <is>
           <t>immediately</t>
         </is>
       </c>
-      <c r="D148" s="2" t="n">
+      <c r="D148" t="n">
         <v>9</v>
       </c>
-      <c r="E148" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F148" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G148" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H148" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I148" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J148" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K148" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L148" s="2" t="inlineStr">
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G148" t="b">
+        <v>1</v>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I148" t="b">
+        <v>1</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K148" t="b">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="2" t="n">
+      <c r="A149" t="n">
         <v>14</v>
       </c>
-      <c r="B149" s="2" t="inlineStr">
+      <c r="B149" t="inlineStr">
         <is>
           <t>Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C149" s="2" t="inlineStr">
+      <c r="C149" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D149" s="2" t="n">
+      <c r="D149" t="n">
         <v>10</v>
       </c>
-      <c r="E149" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F149" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G149" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H149" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I149" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J149" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K149" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L149" s="2" t="inlineStr">
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G149" t="b">
+        <v>1</v>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I149" t="b">
+        <v>1</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K149" t="b">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="2" t="n">
+      <c r="A150" t="n">
         <v>14</v>
       </c>
-      <c r="B150" s="2" t="inlineStr">
+      <c r="B150" t="inlineStr">
         <is>
           <t>Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C150" s="2" t="inlineStr">
+      <c r="C150" t="inlineStr">
         <is>
           <t>return</t>
         </is>
       </c>
-      <c r="D150" s="2" t="n">
+      <c r="D150" t="n">
         <v>11</v>
       </c>
-      <c r="E150" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F150" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G150" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H150" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I150" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J150" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K150" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L150" s="2" t="inlineStr">
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G150" t="b">
+        <v>1</v>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I150" t="b">
+        <v>1</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K150" t="b">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="2" t="n">
+      <c r="A151" t="n">
         <v>14</v>
       </c>
-      <c r="B151" s="2" t="inlineStr">
+      <c r="B151" t="inlineStr">
         <is>
           <t>Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C151" s="2" t="inlineStr">
+      <c r="C151" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D151" s="2" t="n">
+      <c r="D151" t="n">
         <v>12</v>
       </c>
-      <c r="E151" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F151" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G151" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H151" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I151" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J151" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K151" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L151" s="2" t="inlineStr">
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G151" t="b">
+        <v>1</v>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I151" t="b">
+        <v>1</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K151" t="b">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="2" t="n">
+      <c r="A152" t="n">
         <v>14</v>
       </c>
-      <c r="B152" s="2" t="inlineStr">
+      <c r="B152" t="inlineStr">
         <is>
           <t>Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C152" s="2" t="inlineStr">
+      <c r="C152" t="inlineStr">
         <is>
           <t>home</t>
         </is>
       </c>
-      <c r="D152" s="2" t="n">
+      <c r="D152" t="n">
         <v>13</v>
       </c>
-      <c r="E152" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F152" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G152" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H152" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I152" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J152" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K152" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L152" s="2" t="inlineStr">
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G152" t="b">
+        <v>1</v>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I152" t="b">
+        <v>1</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K152" t="b">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="2" t="n">
+      <c r="A153" t="n">
         <v>14</v>
       </c>
-      <c r="B153" s="2" t="inlineStr">
+      <c r="B153" t="inlineStr">
         <is>
           <t>Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C153" s="2" t="inlineStr">
+      <c r="C153" t="inlineStr">
         <is>
           <t>manually</t>
         </is>
       </c>
-      <c r="D153" s="2" t="n">
+      <c r="D153" t="n">
         <v>14</v>
       </c>
-      <c r="E153" s="2" t="inlineStr">
+      <c r="E153" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F153" s="2" t="inlineStr">
+      <c r="F153" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G153" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H153" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I153" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J153" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K153" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L153" s="2" t="inlineStr">
+      <c r="G153" t="b">
+        <v>1</v>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I153" t="b">
+        <v>1</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K153" t="b">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -9157,7 +9157,7 @@
       </c>
       <c r="F168" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G168" s="2" t="b">
@@ -9181,7 +9181,7 @@
       </c>
       <c r="L168" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -9238,364 +9238,364 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="n">
+      <c r="A170" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B170" t="inlineStr">
+      <c r="B170" s="2" t="inlineStr">
         <is>
           <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C170" t="inlineStr">
+      <c r="C170" s="2" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="D170" t="n">
+      <c r="D170" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E170" t="inlineStr">
+      <c r="E170" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G170" t="b">
-        <v>1</v>
-      </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I170" t="b">
-        <v>1</v>
-      </c>
-      <c r="J170" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K170" t="b">
-        <v>1</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F170" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G170" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H170" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I170" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J170" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K170" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L170" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="n">
+      <c r="A171" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B171" t="inlineStr">
+      <c r="B171" s="2" t="inlineStr">
         <is>
           <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C171" t="inlineStr">
+      <c r="C171" s="2" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D171" t="n">
+      <c r="D171" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G171" t="b">
-        <v>1</v>
-      </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I171" t="b">
-        <v>1</v>
-      </c>
-      <c r="J171" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K171" t="b">
-        <v>1</v>
-      </c>
-      <c r="L171" t="inlineStr">
+      <c r="E171" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F171" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G171" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H171" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I171" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J171" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K171" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L171" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="n">
+      <c r="A172" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B172" t="inlineStr">
+      <c r="B172" s="2" t="inlineStr">
         <is>
           <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C172" t="inlineStr">
+      <c r="C172" s="2" t="inlineStr">
         <is>
           <t>Support</t>
         </is>
       </c>
-      <c r="D172" t="n">
+      <c r="D172" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G172" t="b">
-        <v>1</v>
-      </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I172" t="b">
-        <v>1</v>
-      </c>
-      <c r="J172" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K172" t="b">
-        <v>1</v>
-      </c>
-      <c r="L172" t="inlineStr">
+      <c r="E172" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F172" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G172" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H172" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I172" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J172" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K172" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L172" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="n">
+      <c r="A173" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B173" t="inlineStr">
+      <c r="B173" s="2" t="inlineStr">
         <is>
           <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C173" t="inlineStr">
+      <c r="C173" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D173" t="n">
+      <c r="D173" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G173" t="b">
-        <v>1</v>
-      </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I173" t="b">
-        <v>1</v>
-      </c>
-      <c r="J173" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K173" t="b">
-        <v>1</v>
-      </c>
-      <c r="L173" t="inlineStr">
+      <c r="E173" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F173" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G173" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H173" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I173" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J173" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K173" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L173" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="n">
+      <c r="A174" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B174" t="inlineStr">
+      <c r="B174" s="2" t="inlineStr">
         <is>
           <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C174" t="inlineStr">
+      <c r="C174" s="2" t="inlineStr">
         <is>
           <t>arrange</t>
         </is>
       </c>
-      <c r="D174" t="n">
+      <c r="D174" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G174" t="b">
-        <v>1</v>
-      </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I174" t="b">
-        <v>1</v>
-      </c>
-      <c r="J174" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K174" t="b">
-        <v>1</v>
-      </c>
-      <c r="L174" t="inlineStr">
+      <c r="E174" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F174" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G174" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H174" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I174" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J174" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K174" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L174" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="n">
+      <c r="A175" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B175" t="inlineStr">
+      <c r="B175" s="2" t="inlineStr">
         <is>
           <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C175" t="inlineStr">
+      <c r="C175" s="2" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D175" t="n">
+      <c r="D175" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G175" t="b">
-        <v>1</v>
-      </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I175" t="b">
-        <v>1</v>
-      </c>
-      <c r="J175" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K175" t="b">
-        <v>1</v>
-      </c>
-      <c r="L175" t="inlineStr">
+      <c r="E175" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F175" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G175" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H175" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I175" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J175" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K175" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L175" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="n">
+      <c r="A176" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B176" t="inlineStr">
+      <c r="B176" s="2" t="inlineStr">
         <is>
           <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C176" t="inlineStr">
+      <c r="C176" s="2" t="inlineStr">
         <is>
           <t>repairs</t>
         </is>
       </c>
-      <c r="D176" t="n">
+      <c r="D176" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E176" t="inlineStr">
+      <c r="E176" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
+      <c r="F176" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G176" t="b">
-        <v>1</v>
-      </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I176" t="b">
-        <v>1</v>
-      </c>
-      <c r="J176" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K176" t="b">
-        <v>1</v>
-      </c>
-      <c r="L176" t="inlineStr">
+      <c r="G176" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H176" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I176" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J176" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K176" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L176" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -10353,7 +10353,7 @@
       </c>
       <c r="F191" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G191" s="2" t="b">
@@ -10377,7 +10377,7 @@
       </c>
       <c r="L191" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -10717,7 +10717,7 @@
       </c>
       <c r="F198" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G198" s="2" t="b">
@@ -10741,7 +10741,7 @@
       </c>
       <c r="L198" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -10769,7 +10769,7 @@
       </c>
       <c r="F199" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G199" s="2" t="b">
@@ -10793,7 +10793,7 @@
       </c>
       <c r="L199" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -12433,7 +12433,7 @@
       </c>
       <c r="F231" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G231" s="2" t="b">
@@ -12457,7 +12457,7 @@
       </c>
       <c r="L231" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -12485,7 +12485,7 @@
       </c>
       <c r="F232" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G232" s="2" t="b">
@@ -12509,7 +12509,7 @@
       </c>
       <c r="L232" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -12537,7 +12537,7 @@
       </c>
       <c r="F233" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G233" s="2" t="b">
@@ -12561,7 +12561,7 @@
       </c>
       <c r="L233" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -13190,104 +13190,104 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" s="2" t="n">
+      <c r="A246" t="n">
         <v>22</v>
       </c>
-      <c r="B246" s="2" t="inlineStr">
+      <c r="B246" t="inlineStr">
         <is>
           <t>Weak signal Adjust antennas .</t>
         </is>
       </c>
-      <c r="C246" s="2" t="inlineStr">
+      <c r="C246" t="inlineStr">
         <is>
           <t>Weak</t>
         </is>
       </c>
-      <c r="D246" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E246" s="2" t="inlineStr">
+      <c r="D246" t="n">
+        <v>0</v>
+      </c>
+      <c r="E246" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F246" s="2" t="inlineStr">
+      <c r="F246" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G246" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H246" s="2" t="inlineStr">
+      <c r="G246" t="b">
+        <v>1</v>
+      </c>
+      <c r="H246" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I246" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J246" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K246" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L246" s="2" t="inlineStr">
+      <c r="I246" t="b">
+        <v>1</v>
+      </c>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K246" t="b">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="247">
-      <c r="A247" s="2" t="n">
+      <c r="A247" t="n">
         <v>22</v>
       </c>
-      <c r="B247" s="2" t="inlineStr">
+      <c r="B247" t="inlineStr">
         <is>
           <t>Weak signal Adjust antennas .</t>
         </is>
       </c>
-      <c r="C247" s="2" t="inlineStr">
+      <c r="C247" t="inlineStr">
         <is>
           <t>signal</t>
         </is>
       </c>
-      <c r="D247" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E247" s="2" t="inlineStr">
+      <c r="D247" t="n">
+        <v>1</v>
+      </c>
+      <c r="E247" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F247" s="2" t="inlineStr">
+      <c r="F247" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G247" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H247" s="2" t="inlineStr">
+      <c r="G247" t="b">
+        <v>1</v>
+      </c>
+      <c r="H247" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I247" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J247" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K247" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L247" s="2" t="inlineStr">
+      <c r="I247" t="b">
+        <v>1</v>
+      </c>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K247" t="b">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -13329,11 +13329,11 @@
         </is>
       </c>
       <c r="I248" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J248" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K248" s="2" t="b">
@@ -13369,7 +13369,7 @@
       </c>
       <c r="F249" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G249" s="2" t="b">
@@ -13381,11 +13381,11 @@
         </is>
       </c>
       <c r="I249" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J249" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K249" s="2" t="b">
@@ -13393,7 +13393,7 @@
       </c>
       <c r="L249" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -14409,7 +14409,7 @@
       </c>
       <c r="F269" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G269" s="2" t="b">
@@ -14433,7 +14433,7 @@
       </c>
       <c r="L269" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -14721,7 +14721,7 @@
       </c>
       <c r="F275" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G275" s="2" t="b">
@@ -14745,7 +14745,7 @@
       </c>
       <c r="L275" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -15553,7 +15553,7 @@
       </c>
       <c r="F291" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G291" s="2" t="b">
@@ -15577,7 +15577,7 @@
       </c>
       <c r="L291" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -16073,7 +16073,7 @@
       </c>
       <c r="F301" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G301" s="2" t="b">
@@ -16097,7 +16097,7 @@
       </c>
       <c r="L301" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -16437,7 +16437,7 @@
       </c>
       <c r="F308" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G308" s="2" t="b">
@@ -16461,7 +16461,7 @@
       </c>
       <c r="L308" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -16749,7 +16749,7 @@
       </c>
       <c r="F314" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G314" s="2" t="b">
@@ -16773,7 +16773,7 @@
       </c>
       <c r="L314" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -17009,7 +17009,7 @@
       </c>
       <c r="F319" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G319" s="2" t="b">
@@ -17033,7 +17033,7 @@
       </c>
       <c r="L319" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -17165,7 +17165,7 @@
       </c>
       <c r="F322" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G322" s="2" t="b">
@@ -17189,7 +17189,7 @@
       </c>
       <c r="L322" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -18442,156 +18442,156 @@
       </c>
     </row>
     <row r="347">
-      <c r="A347" t="n">
+      <c r="A347" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="B347" t="inlineStr">
+      <c r="B347" s="2" t="inlineStr">
         <is>
           <t>GPS module error Restart aircraft .</t>
         </is>
       </c>
-      <c r="C347" t="inlineStr">
+      <c r="C347" s="2" t="inlineStr">
         <is>
           <t>GPS</t>
         </is>
       </c>
-      <c r="D347" t="n">
-        <v>0</v>
-      </c>
-      <c r="E347" t="inlineStr">
+      <c r="D347" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E347" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F347" t="inlineStr">
+      <c r="F347" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G347" t="b">
-        <v>1</v>
-      </c>
-      <c r="H347" t="inlineStr">
+      <c r="G347" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H347" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I347" t="b">
-        <v>1</v>
-      </c>
-      <c r="J347" t="inlineStr">
+      <c r="I347" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J347" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K347" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L347" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B348" s="2" t="inlineStr">
+        <is>
+          <t>GPS module error Restart aircraft .</t>
+        </is>
+      </c>
+      <c r="C348" s="2" t="inlineStr">
+        <is>
+          <t>module</t>
+        </is>
+      </c>
+      <c r="D348" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E348" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F348" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G348" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H348" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K347" t="b">
-        <v>1</v>
-      </c>
-      <c r="L347" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" t="n">
+      <c r="I348" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J348" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K348" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L348" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="B348" t="inlineStr">
+      <c r="B349" s="2" t="inlineStr">
         <is>
           <t>GPS module error Restart aircraft .</t>
         </is>
       </c>
-      <c r="C348" t="inlineStr">
-        <is>
-          <t>module</t>
-        </is>
-      </c>
-      <c r="D348" t="n">
-        <v>1</v>
-      </c>
-      <c r="E348" t="inlineStr">
+      <c r="C349" s="2" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="D349" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E349" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F349" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F348" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G348" t="b">
-        <v>1</v>
-      </c>
-      <c r="H348" t="inlineStr">
+      <c r="G349" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H349" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I348" t="b">
-        <v>1</v>
-      </c>
-      <c r="J348" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K348" t="b">
-        <v>1</v>
-      </c>
-      <c r="L348" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" t="n">
-        <v>31</v>
-      </c>
-      <c r="B349" t="inlineStr">
-        <is>
-          <t>GPS module error Restart aircraft .</t>
-        </is>
-      </c>
-      <c r="C349" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="D349" t="n">
-        <v>2</v>
-      </c>
-      <c r="E349" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F349" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G349" t="b">
-        <v>1</v>
-      </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I349" t="b">
-        <v>1</v>
-      </c>
-      <c r="J349" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K349" t="b">
-        <v>1</v>
-      </c>
-      <c r="L349" t="inlineStr">
+      <c r="I349" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J349" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K349" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L349" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -18621,7 +18621,7 @@
       </c>
       <c r="F350" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G350" s="2" t="b">
@@ -18633,11 +18633,11 @@
         </is>
       </c>
       <c r="I350" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J350" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K350" s="2" t="b">
@@ -18645,7 +18645,7 @@
       </c>
       <c r="L350" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -18673,7 +18673,7 @@
       </c>
       <c r="F351" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G351" s="2" t="b">
@@ -18685,11 +18685,11 @@
         </is>
       </c>
       <c r="I351" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J351" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K351" s="2" t="b">
@@ -18697,7 +18697,7 @@
       </c>
       <c r="L351" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -18933,7 +18933,7 @@
       </c>
       <c r="F356" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G356" s="2" t="b">
@@ -18957,7 +18957,7 @@
       </c>
       <c r="L356" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -20649,7 +20649,7 @@
       </c>
       <c r="F389" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G389" s="2" t="b">
@@ -20673,7 +20673,7 @@
       </c>
       <c r="L389" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -20753,7 +20753,7 @@
       </c>
       <c r="F391" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G391" s="2" t="b">
@@ -20777,7 +20777,7 @@
       </c>
       <c r="L391" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -20805,7 +20805,7 @@
       </c>
       <c r="F392" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G392" s="2" t="b">
@@ -20829,7 +20829,7 @@
       </c>
       <c r="L392" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -20961,7 +20961,7 @@
       </c>
       <c r="F395" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G395" s="2" t="b">
@@ -20985,7 +20985,7 @@
       </c>
       <c r="L395" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -21221,7 +21221,7 @@
       </c>
       <c r="F400" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G400" s="2" t="b">
@@ -21245,7 +21245,7 @@
       </c>
       <c r="L400" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -21325,7 +21325,7 @@
       </c>
       <c r="F402" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G402" s="2" t="b">
@@ -21349,7 +21349,7 @@
       </c>
       <c r="L402" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -21614,312 +21614,312 @@
       </c>
     </row>
     <row r="408">
-      <c r="A408" t="n">
+      <c r="A408" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B408" t="inlineStr">
+      <c r="B408" s="2" t="inlineStr">
         <is>
           <t>Aircraft in Restricted Zones Check map to find Recommended Zones .</t>
         </is>
       </c>
-      <c r="C408" t="inlineStr">
+      <c r="C408" s="2" t="inlineStr">
         <is>
           <t>Check</t>
         </is>
       </c>
-      <c r="D408" t="n">
+      <c r="D408" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E408" t="inlineStr">
+      <c r="E408" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F408" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G408" t="b">
-        <v>1</v>
-      </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I408" t="b">
-        <v>1</v>
-      </c>
-      <c r="J408" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K408" t="b">
-        <v>1</v>
-      </c>
-      <c r="L408" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F408" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G408" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H408" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I408" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J408" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K408" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L408" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="409">
-      <c r="A409" t="n">
+      <c r="A409" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B409" t="inlineStr">
+      <c r="B409" s="2" t="inlineStr">
         <is>
           <t>Aircraft in Restricted Zones Check map to find Recommended Zones .</t>
         </is>
       </c>
-      <c r="C409" t="inlineStr">
+      <c r="C409" s="2" t="inlineStr">
         <is>
           <t>map</t>
         </is>
       </c>
-      <c r="D409" t="n">
+      <c r="D409" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E409" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F409" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G409" t="b">
-        <v>1</v>
-      </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I409" t="b">
-        <v>1</v>
-      </c>
-      <c r="J409" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K409" t="b">
-        <v>1</v>
-      </c>
-      <c r="L409" t="inlineStr">
+      <c r="E409" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F409" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G409" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H409" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I409" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J409" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K409" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L409" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="410">
-      <c r="A410" t="n">
+      <c r="A410" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B410" t="inlineStr">
+      <c r="B410" s="2" t="inlineStr">
         <is>
           <t>Aircraft in Restricted Zones Check map to find Recommended Zones .</t>
         </is>
       </c>
-      <c r="C410" t="inlineStr">
+      <c r="C410" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D410" t="n">
+      <c r="D410" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E410" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F410" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G410" t="b">
-        <v>1</v>
-      </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I410" t="b">
-        <v>1</v>
-      </c>
-      <c r="J410" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K410" t="b">
-        <v>1</v>
-      </c>
-      <c r="L410" t="inlineStr">
+      <c r="E410" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F410" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G410" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H410" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I410" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J410" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K410" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L410" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="411">
-      <c r="A411" t="n">
+      <c r="A411" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B411" t="inlineStr">
+      <c r="B411" s="2" t="inlineStr">
         <is>
           <t>Aircraft in Restricted Zones Check map to find Recommended Zones .</t>
         </is>
       </c>
-      <c r="C411" t="inlineStr">
+      <c r="C411" s="2" t="inlineStr">
         <is>
           <t>find</t>
         </is>
       </c>
-      <c r="D411" t="n">
+      <c r="D411" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E411" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F411" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G411" t="b">
-        <v>1</v>
-      </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I411" t="b">
-        <v>1</v>
-      </c>
-      <c r="J411" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K411" t="b">
-        <v>1</v>
-      </c>
-      <c r="L411" t="inlineStr">
+      <c r="E411" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F411" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G411" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H411" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I411" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J411" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K411" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L411" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="412">
-      <c r="A412" t="n">
+      <c r="A412" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B412" t="inlineStr">
+      <c r="B412" s="2" t="inlineStr">
         <is>
           <t>Aircraft in Restricted Zones Check map to find Recommended Zones .</t>
         </is>
       </c>
-      <c r="C412" t="inlineStr">
+      <c r="C412" s="2" t="inlineStr">
         <is>
           <t>Recommended</t>
         </is>
       </c>
-      <c r="D412" t="n">
+      <c r="D412" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E412" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F412" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G412" t="b">
-        <v>1</v>
-      </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I412" t="b">
-        <v>1</v>
-      </c>
-      <c r="J412" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K412" t="b">
-        <v>1</v>
-      </c>
-      <c r="L412" t="inlineStr">
+      <c r="E412" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F412" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G412" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H412" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I412" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J412" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K412" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L412" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="413">
-      <c r="A413" t="n">
+      <c r="A413" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B413" t="inlineStr">
+      <c r="B413" s="2" t="inlineStr">
         <is>
           <t>Aircraft in Restricted Zones Check map to find Recommended Zones .</t>
         </is>
       </c>
-      <c r="C413" t="inlineStr">
+      <c r="C413" s="2" t="inlineStr">
         <is>
           <t>Zones</t>
         </is>
       </c>
-      <c r="D413" t="n">
+      <c r="D413" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E413" t="inlineStr">
+      <c r="E413" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F413" t="inlineStr">
+      <c r="F413" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G413" t="b">
-        <v>1</v>
-      </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I413" t="b">
-        <v>1</v>
-      </c>
-      <c r="J413" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K413" t="b">
-        <v>1</v>
-      </c>
-      <c r="L413" t="inlineStr">
+      <c r="G413" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H413" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I413" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J413" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K413" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L413" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -22654,208 +22654,208 @@
       </c>
     </row>
     <row r="428">
-      <c r="A428" t="n">
+      <c r="A428" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="B428" t="inlineStr">
+      <c r="B428" s="2" t="inlineStr">
         <is>
           <t>Compass data error Please contact DJI Support .</t>
         </is>
       </c>
-      <c r="C428" t="inlineStr">
+      <c r="C428" s="2" t="inlineStr">
         <is>
           <t>Please</t>
         </is>
       </c>
-      <c r="D428" t="n">
+      <c r="D428" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E428" t="inlineStr">
+      <c r="E428" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F428" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G428" t="b">
-        <v>1</v>
-      </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I428" t="b">
-        <v>1</v>
-      </c>
-      <c r="J428" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K428" t="b">
-        <v>1</v>
-      </c>
-      <c r="L428" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F428" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G428" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H428" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I428" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J428" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K428" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L428" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="429">
-      <c r="A429" t="n">
+      <c r="A429" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="B429" t="inlineStr">
+      <c r="B429" s="2" t="inlineStr">
         <is>
           <t>Compass data error Please contact DJI Support .</t>
         </is>
       </c>
-      <c r="C429" t="inlineStr">
+      <c r="C429" s="2" t="inlineStr">
         <is>
           <t>contact</t>
         </is>
       </c>
-      <c r="D429" t="n">
+      <c r="D429" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E429" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F429" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G429" t="b">
-        <v>1</v>
-      </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I429" t="b">
-        <v>1</v>
-      </c>
-      <c r="J429" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K429" t="b">
-        <v>1</v>
-      </c>
-      <c r="L429" t="inlineStr">
+      <c r="E429" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F429" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G429" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H429" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I429" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J429" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K429" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L429" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="430">
-      <c r="A430" t="n">
+      <c r="A430" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="B430" t="inlineStr">
+      <c r="B430" s="2" t="inlineStr">
         <is>
           <t>Compass data error Please contact DJI Support .</t>
         </is>
       </c>
-      <c r="C430" t="inlineStr">
+      <c r="C430" s="2" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D430" t="n">
+      <c r="D430" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E430" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F430" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G430" t="b">
-        <v>1</v>
-      </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I430" t="b">
-        <v>1</v>
-      </c>
-      <c r="J430" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K430" t="b">
-        <v>1</v>
-      </c>
-      <c r="L430" t="inlineStr">
+      <c r="E430" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F430" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G430" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H430" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I430" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J430" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K430" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L430" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="431">
-      <c r="A431" t="n">
+      <c r="A431" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="B431" t="inlineStr">
+      <c r="B431" s="2" t="inlineStr">
         <is>
           <t>Compass data error Please contact DJI Support .</t>
         </is>
       </c>
-      <c r="C431" t="inlineStr">
+      <c r="C431" s="2" t="inlineStr">
         <is>
           <t>Support</t>
         </is>
       </c>
-      <c r="D431" t="n">
+      <c r="D431" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E431" t="inlineStr">
+      <c r="E431" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F431" t="inlineStr">
+      <c r="F431" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G431" t="b">
-        <v>1</v>
-      </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I431" t="b">
-        <v>1</v>
-      </c>
-      <c r="J431" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K431" t="b">
-        <v>1</v>
-      </c>
-      <c r="L431" t="inlineStr">
+      <c r="G431" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H431" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I431" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J431" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K431" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L431" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -22914,676 +22914,676 @@
       </c>
     </row>
     <row r="433">
-      <c r="A433" s="2" t="n">
+      <c r="A433" t="n">
         <v>40</v>
       </c>
-      <c r="B433" s="2" t="inlineStr">
+      <c r="B433" t="inlineStr">
         <is>
           <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
-      <c r="C433" s="2" t="inlineStr">
+      <c r="C433" t="inlineStr">
         <is>
           <t>Extended</t>
         </is>
       </c>
-      <c r="D433" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E433" s="2" t="inlineStr">
+      <c r="D433" t="n">
+        <v>0</v>
+      </c>
+      <c r="E433" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F433" s="2" t="inlineStr">
+      <c r="F433" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G433" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H433" s="2" t="inlineStr">
+      <c r="G433" t="b">
+        <v>1</v>
+      </c>
+      <c r="H433" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I433" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J433" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K433" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L433" s="2" t="inlineStr">
+      <c r="I433" t="b">
+        <v>1</v>
+      </c>
+      <c r="J433" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K433" t="b">
+        <v>1</v>
+      </c>
+      <c r="L433" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="434">
-      <c r="A434" s="2" t="n">
+      <c r="A434" t="n">
         <v>40</v>
       </c>
-      <c r="B434" s="2" t="inlineStr">
+      <c r="B434" t="inlineStr">
         <is>
           <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
-      <c r="C434" s="2" t="inlineStr">
+      <c r="C434" t="inlineStr">
         <is>
           <t>flight</t>
         </is>
       </c>
-      <c r="D434" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E434" s="2" t="inlineStr">
+      <c r="D434" t="n">
+        <v>1</v>
+      </c>
+      <c r="E434" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F434" s="2" t="inlineStr">
+      <c r="F434" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G434" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H434" s="2" t="inlineStr">
+      <c r="G434" t="b">
+        <v>1</v>
+      </c>
+      <c r="H434" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I434" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J434" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K434" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L434" s="2" t="inlineStr">
+      <c r="I434" t="b">
+        <v>1</v>
+      </c>
+      <c r="J434" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K434" t="b">
+        <v>1</v>
+      </c>
+      <c r="L434" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="435">
-      <c r="A435" s="2" t="n">
+      <c r="A435" t="n">
         <v>40</v>
       </c>
-      <c r="B435" s="2" t="inlineStr">
+      <c r="B435" t="inlineStr">
         <is>
           <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
-      <c r="C435" s="2" t="inlineStr">
+      <c r="C435" t="inlineStr">
         <is>
           <t>distance</t>
         </is>
       </c>
-      <c r="D435" s="2" t="n">
+      <c r="D435" t="n">
         <v>2</v>
       </c>
-      <c r="E435" s="2" t="inlineStr">
+      <c r="E435" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F435" s="2" t="inlineStr">
+      <c r="F435" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G435" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H435" s="2" t="inlineStr">
+      <c r="G435" t="b">
+        <v>1</v>
+      </c>
+      <c r="H435" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I435" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J435" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K435" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L435" s="2" t="inlineStr">
+      <c r="I435" t="b">
+        <v>1</v>
+      </c>
+      <c r="J435" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K435" t="b">
+        <v>1</v>
+      </c>
+      <c r="L435" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="436">
-      <c r="A436" s="2" t="n">
+      <c r="A436" t="n">
         <v>40</v>
       </c>
-      <c r="B436" s="2" t="inlineStr">
+      <c r="B436" t="inlineStr">
         <is>
           <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
-      <c r="C436" s="2" t="inlineStr">
+      <c r="C436" t="inlineStr">
         <is>
           <t>detected</t>
         </is>
       </c>
-      <c r="D436" s="2" t="n">
+      <c r="D436" t="n">
         <v>3</v>
       </c>
-      <c r="E436" s="2" t="inlineStr">
+      <c r="E436" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F436" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G436" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H436" s="2" t="inlineStr">
+      <c r="F436" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G436" t="b">
+        <v>1</v>
+      </c>
+      <c r="H436" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I436" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J436" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K436" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L436" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="I436" t="b">
+        <v>1</v>
+      </c>
+      <c r="J436" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K436" t="b">
+        <v>1</v>
+      </c>
+      <c r="L436" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="437">
-      <c r="A437" s="2" t="n">
+      <c r="A437" t="n">
         <v>40</v>
       </c>
-      <c r="B437" s="2" t="inlineStr">
+      <c r="B437" t="inlineStr">
         <is>
           <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
-      <c r="C437" s="2" t="inlineStr">
+      <c r="C437" t="inlineStr">
         <is>
           <t>Always</t>
         </is>
       </c>
-      <c r="D437" s="2" t="n">
+      <c r="D437" t="n">
         <v>4</v>
       </c>
-      <c r="E437" s="2" t="inlineStr">
+      <c r="E437" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F437" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G437" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H437" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I437" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J437" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K437" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L437" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F437" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G437" t="b">
+        <v>1</v>
+      </c>
+      <c r="H437" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I437" t="b">
+        <v>1</v>
+      </c>
+      <c r="J437" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K437" t="b">
+        <v>1</v>
+      </c>
+      <c r="L437" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="438">
-      <c r="A438" s="2" t="n">
+      <c r="A438" t="n">
         <v>40</v>
       </c>
-      <c r="B438" s="2" t="inlineStr">
+      <c r="B438" t="inlineStr">
         <is>
           <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
-      <c r="C438" s="2" t="inlineStr">
+      <c r="C438" t="inlineStr">
         <is>
           <t>maintain</t>
         </is>
       </c>
-      <c r="D438" s="2" t="n">
+      <c r="D438" t="n">
         <v>5</v>
       </c>
-      <c r="E438" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F438" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G438" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H438" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I438" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J438" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K438" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L438" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E438" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F438" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G438" t="b">
+        <v>1</v>
+      </c>
+      <c r="H438" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I438" t="b">
+        <v>1</v>
+      </c>
+      <c r="J438" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K438" t="b">
+        <v>1</v>
+      </c>
+      <c r="L438" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="439">
-      <c r="A439" s="2" t="n">
+      <c r="A439" t="n">
         <v>40</v>
       </c>
-      <c r="B439" s="2" t="inlineStr">
+      <c r="B439" t="inlineStr">
         <is>
           <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
-      <c r="C439" s="2" t="inlineStr">
+      <c r="C439" t="inlineStr">
         <is>
           <t>visual</t>
         </is>
       </c>
-      <c r="D439" s="2" t="n">
+      <c r="D439" t="n">
         <v>6</v>
       </c>
-      <c r="E439" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F439" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G439" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H439" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I439" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J439" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K439" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L439" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E439" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F439" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G439" t="b">
+        <v>1</v>
+      </c>
+      <c r="H439" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I439" t="b">
+        <v>1</v>
+      </c>
+      <c r="J439" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K439" t="b">
+        <v>1</v>
+      </c>
+      <c r="L439" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="440">
-      <c r="A440" s="2" t="n">
+      <c r="A440" t="n">
         <v>40</v>
       </c>
-      <c r="B440" s="2" t="inlineStr">
+      <c r="B440" t="inlineStr">
         <is>
           <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
-      <c r="C440" s="2" t="inlineStr">
+      <c r="C440" t="inlineStr">
         <is>
           <t>line</t>
         </is>
       </c>
-      <c r="D440" s="2" t="n">
+      <c r="D440" t="n">
         <v>7</v>
       </c>
-      <c r="E440" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F440" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G440" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H440" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I440" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J440" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K440" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L440" s="2" t="inlineStr">
+      <c r="E440" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F440" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G440" t="b">
+        <v>1</v>
+      </c>
+      <c r="H440" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I440" t="b">
+        <v>1</v>
+      </c>
+      <c r="J440" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K440" t="b">
+        <v>1</v>
+      </c>
+      <c r="L440" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="441">
-      <c r="A441" s="2" t="n">
+      <c r="A441" t="n">
         <v>40</v>
       </c>
-      <c r="B441" s="2" t="inlineStr">
+      <c r="B441" t="inlineStr">
         <is>
           <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
-      <c r="C441" s="2" t="inlineStr">
+      <c r="C441" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D441" s="2" t="n">
+      <c r="D441" t="n">
         <v>8</v>
       </c>
-      <c r="E441" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F441" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G441" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H441" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I441" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J441" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K441" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L441" s="2" t="inlineStr">
+      <c r="E441" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F441" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G441" t="b">
+        <v>1</v>
+      </c>
+      <c r="H441" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I441" t="b">
+        <v>1</v>
+      </c>
+      <c r="J441" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K441" t="b">
+        <v>1</v>
+      </c>
+      <c r="L441" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="442">
-      <c r="A442" s="2" t="n">
+      <c r="A442" t="n">
         <v>40</v>
       </c>
-      <c r="B442" s="2" t="inlineStr">
+      <c r="B442" t="inlineStr">
         <is>
           <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
-      <c r="C442" s="2" t="inlineStr">
+      <c r="C442" t="inlineStr">
         <is>
           <t>sight</t>
         </is>
       </c>
-      <c r="D442" s="2" t="n">
+      <c r="D442" t="n">
         <v>9</v>
       </c>
-      <c r="E442" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F442" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G442" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H442" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I442" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J442" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K442" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L442" s="2" t="inlineStr">
+      <c r="E442" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F442" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G442" t="b">
+        <v>1</v>
+      </c>
+      <c r="H442" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I442" t="b">
+        <v>1</v>
+      </c>
+      <c r="J442" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K442" t="b">
+        <v>1</v>
+      </c>
+      <c r="L442" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="443">
-      <c r="A443" s="2" t="n">
+      <c r="A443" t="n">
         <v>40</v>
       </c>
-      <c r="B443" s="2" t="inlineStr">
+      <c r="B443" t="inlineStr">
         <is>
           <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
-      <c r="C443" s="2" t="inlineStr">
+      <c r="C443" t="inlineStr">
         <is>
           <t>unless</t>
         </is>
       </c>
-      <c r="D443" s="2" t="n">
+      <c r="D443" t="n">
         <v>10</v>
       </c>
-      <c r="E443" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F443" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G443" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H443" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I443" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J443" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K443" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L443" s="2" t="inlineStr">
+      <c r="E443" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F443" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G443" t="b">
+        <v>1</v>
+      </c>
+      <c r="H443" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I443" t="b">
+        <v>1</v>
+      </c>
+      <c r="J443" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K443" t="b">
+        <v>1</v>
+      </c>
+      <c r="L443" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="444">
-      <c r="A444" s="2" t="n">
+      <c r="A444" t="n">
         <v>40</v>
       </c>
-      <c r="B444" s="2" t="inlineStr">
+      <c r="B444" t="inlineStr">
         <is>
           <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
-      <c r="C444" s="2" t="inlineStr">
+      <c r="C444" t="inlineStr">
         <is>
           <t>otherwise</t>
         </is>
       </c>
-      <c r="D444" s="2" t="n">
+      <c r="D444" t="n">
         <v>11</v>
       </c>
-      <c r="E444" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F444" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G444" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H444" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I444" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J444" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K444" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L444" s="2" t="inlineStr">
+      <c r="E444" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F444" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G444" t="b">
+        <v>1</v>
+      </c>
+      <c r="H444" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I444" t="b">
+        <v>1</v>
+      </c>
+      <c r="J444" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K444" t="b">
+        <v>1</v>
+      </c>
+      <c r="L444" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="445">
-      <c r="A445" s="2" t="n">
+      <c r="A445" t="n">
         <v>40</v>
       </c>
-      <c r="B445" s="2" t="inlineStr">
+      <c r="B445" t="inlineStr">
         <is>
           <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
-      <c r="C445" s="2" t="inlineStr">
+      <c r="C445" t="inlineStr">
         <is>
           <t>authorized</t>
         </is>
       </c>
-      <c r="D445" s="2" t="n">
+      <c r="D445" t="n">
         <v>12</v>
       </c>
-      <c r="E445" s="2" t="inlineStr">
+      <c r="E445" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F445" s="2" t="inlineStr">
+      <c r="F445" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G445" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H445" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I445" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J445" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K445" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L445" s="2" t="inlineStr">
+      <c r="G445" t="b">
+        <v>1</v>
+      </c>
+      <c r="H445" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I445" t="b">
+        <v>1</v>
+      </c>
+      <c r="J445" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K445" t="b">
+        <v>1</v>
+      </c>
+      <c r="L445" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -24734,366 +24734,366 @@
       </c>
     </row>
     <row r="468">
-      <c r="A468" s="2" t="n">
+      <c r="A468" t="n">
         <v>43</v>
       </c>
-      <c r="B468" s="2" t="inlineStr">
+      <c r="B468" t="inlineStr">
         <is>
           <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C468" s="2" t="inlineStr">
+      <c r="C468" t="inlineStr">
         <is>
           <t>Cool</t>
         </is>
       </c>
-      <c r="D468" s="2" t="n">
+      <c r="D468" t="n">
         <v>4</v>
       </c>
-      <c r="E468" s="2" t="inlineStr">
+      <c r="E468" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F468" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G468" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H468" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I468" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J468" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K468" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L468" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F468" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G468" t="b">
+        <v>1</v>
+      </c>
+      <c r="H468" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I468" t="b">
+        <v>1</v>
+      </c>
+      <c r="J468" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K468" t="b">
+        <v>1</v>
+      </c>
+      <c r="L468" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="469">
-      <c r="A469" s="2" t="n">
+      <c r="A469" t="n">
         <v>43</v>
       </c>
-      <c r="B469" s="2" t="inlineStr">
+      <c r="B469" t="inlineStr">
         <is>
           <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C469" s="2" t="inlineStr">
+      <c r="C469" t="inlineStr">
         <is>
           <t>down</t>
         </is>
       </c>
-      <c r="D469" s="2" t="n">
+      <c r="D469" t="n">
         <v>5</v>
       </c>
-      <c r="E469" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F469" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G469" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H469" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I469" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J469" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K469" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L469" s="2" t="inlineStr">
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F469" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G469" t="b">
+        <v>1</v>
+      </c>
+      <c r="H469" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I469" t="b">
+        <v>1</v>
+      </c>
+      <c r="J469" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K469" t="b">
+        <v>1</v>
+      </c>
+      <c r="L469" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="470">
-      <c r="A470" s="2" t="n">
+      <c r="A470" t="n">
         <v>43</v>
       </c>
-      <c r="B470" s="2" t="inlineStr">
+      <c r="B470" t="inlineStr">
         <is>
           <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C470" s="2" t="inlineStr">
+      <c r="C470" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D470" s="2" t="n">
+      <c r="D470" t="n">
         <v>6</v>
       </c>
-      <c r="E470" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F470" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G470" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H470" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I470" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J470" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K470" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L470" s="2" t="inlineStr">
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F470" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G470" t="b">
+        <v>1</v>
+      </c>
+      <c r="H470" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I470" t="b">
+        <v>1</v>
+      </c>
+      <c r="J470" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K470" t="b">
+        <v>1</v>
+      </c>
+      <c r="L470" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="471">
-      <c r="A471" s="2" t="n">
+      <c r="A471" t="n">
         <v>43</v>
       </c>
-      <c r="B471" s="2" t="inlineStr">
+      <c r="B471" t="inlineStr">
         <is>
           <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C471" s="2" t="inlineStr">
+      <c r="C471" t="inlineStr">
         <is>
           <t>monitor</t>
         </is>
       </c>
-      <c r="D471" s="2" t="n">
+      <c r="D471" t="n">
         <v>7</v>
       </c>
-      <c r="E471" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F471" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G471" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H471" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I471" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J471" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K471" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L471" s="2" t="inlineStr">
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F471" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G471" t="b">
+        <v>1</v>
+      </c>
+      <c r="H471" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I471" t="b">
+        <v>1</v>
+      </c>
+      <c r="J471" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K471" t="b">
+        <v>1</v>
+      </c>
+      <c r="L471" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="472">
-      <c r="A472" s="2" t="n">
+      <c r="A472" t="n">
         <v>43</v>
       </c>
-      <c r="B472" s="2" t="inlineStr">
+      <c r="B472" t="inlineStr">
         <is>
           <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C472" s="2" t="inlineStr">
+      <c r="C472" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D472" s="2" t="n">
+      <c r="D472" t="n">
         <v>8</v>
       </c>
-      <c r="E472" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F472" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G472" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H472" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I472" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J472" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K472" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L472" s="2" t="inlineStr">
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F472" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G472" t="b">
+        <v>1</v>
+      </c>
+      <c r="H472" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I472" t="b">
+        <v>1</v>
+      </c>
+      <c r="J472" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K472" t="b">
+        <v>1</v>
+      </c>
+      <c r="L472" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="473">
-      <c r="A473" s="2" t="n">
+      <c r="A473" t="n">
         <v>43</v>
       </c>
-      <c r="B473" s="2" t="inlineStr">
+      <c r="B473" t="inlineStr">
         <is>
           <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C473" s="2" t="inlineStr">
+      <c r="C473" t="inlineStr">
         <is>
           <t>prevent</t>
         </is>
       </c>
-      <c r="D473" s="2" t="n">
+      <c r="D473" t="n">
         <v>9</v>
       </c>
-      <c r="E473" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F473" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G473" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H473" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I473" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J473" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K473" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L473" s="2" t="inlineStr">
+      <c r="E473" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F473" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G473" t="b">
+        <v>1</v>
+      </c>
+      <c r="H473" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I473" t="b">
+        <v>1</v>
+      </c>
+      <c r="J473" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K473" t="b">
+        <v>1</v>
+      </c>
+      <c r="L473" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="474">
-      <c r="A474" s="2" t="n">
+      <c r="A474" t="n">
         <v>43</v>
       </c>
-      <c r="B474" s="2" t="inlineStr">
+      <c r="B474" t="inlineStr">
         <is>
           <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C474" s="2" t="inlineStr">
+      <c r="C474" t="inlineStr">
         <is>
           <t>overheating</t>
         </is>
       </c>
-      <c r="D474" s="2" t="n">
+      <c r="D474" t="n">
         <v>10</v>
       </c>
-      <c r="E474" s="2" t="inlineStr">
+      <c r="E474" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F474" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G474" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H474" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I474" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J474" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K474" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L474" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F474" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G474" t="b">
+        <v>1</v>
+      </c>
+      <c r="H474" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I474" t="b">
+        <v>1</v>
+      </c>
+      <c r="J474" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K474" t="b">
+        <v>1</v>
+      </c>
+      <c r="L474" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -25358,106 +25358,106 @@
       </c>
     </row>
     <row r="480">
-      <c r="A480" s="2" t="n">
+      <c r="A480" t="n">
         <v>44</v>
       </c>
-      <c r="B480" s="2" t="inlineStr">
+      <c r="B480" t="inlineStr">
         <is>
           <t>Aircraft takeoff altitude error Restart aircraft .</t>
         </is>
       </c>
-      <c r="C480" s="2" t="inlineStr">
+      <c r="C480" t="inlineStr">
         <is>
           <t>Restart</t>
         </is>
       </c>
-      <c r="D480" s="2" t="n">
+      <c r="D480" t="n">
         <v>4</v>
       </c>
-      <c r="E480" s="2" t="inlineStr">
+      <c r="E480" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F480" s="2" t="inlineStr">
+      <c r="F480" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G480" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H480" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I480" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J480" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K480" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L480" s="2" t="inlineStr">
+      <c r="G480" t="b">
+        <v>1</v>
+      </c>
+      <c r="H480" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I480" t="b">
+        <v>1</v>
+      </c>
+      <c r="J480" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K480" t="b">
+        <v>1</v>
+      </c>
+      <c r="L480" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="481">
-      <c r="A481" s="2" t="n">
+      <c r="A481" t="n">
         <v>44</v>
       </c>
-      <c r="B481" s="2" t="inlineStr">
+      <c r="B481" t="inlineStr">
         <is>
           <t>Aircraft takeoff altitude error Restart aircraft .</t>
         </is>
       </c>
-      <c r="C481" s="2" t="inlineStr">
+      <c r="C481" t="inlineStr">
         <is>
           <t>aircraft</t>
         </is>
       </c>
-      <c r="D481" s="2" t="n">
+      <c r="D481" t="n">
         <v>5</v>
       </c>
-      <c r="E481" s="2" t="inlineStr">
+      <c r="E481" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F481" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G481" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H481" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I481" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J481" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K481" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L481" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F481" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G481" t="b">
+        <v>1</v>
+      </c>
+      <c r="H481" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I481" t="b">
+        <v>1</v>
+      </c>
+      <c r="J481" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K481" t="b">
+        <v>1</v>
+      </c>
+      <c r="L481" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -25514,730 +25514,730 @@
       </c>
     </row>
     <row r="483">
-      <c r="A483" t="n">
+      <c r="A483" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B483" t="inlineStr">
+      <c r="B483" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C483" t="inlineStr">
+      <c r="C483" s="2" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="D483" t="n">
-        <v>0</v>
-      </c>
-      <c r="E483" t="inlineStr">
+      <c r="D483" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E483" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F483" t="inlineStr">
+      <c r="F483" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G483" t="b">
-        <v>1</v>
-      </c>
-      <c r="H483" t="inlineStr">
+      <c r="G483" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H483" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I483" t="b">
-        <v>1</v>
-      </c>
-      <c r="J483" t="inlineStr">
+      <c r="I483" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J483" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K483" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L483" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B484" s="2" t="inlineStr">
+        <is>
+          <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
+        </is>
+      </c>
+      <c r="C484" s="2" t="inlineStr">
+        <is>
+          <t>card</t>
+        </is>
+      </c>
+      <c r="D484" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E484" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F484" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G484" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H484" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K483" t="b">
-        <v>1</v>
-      </c>
-      <c r="L483" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="484">
-      <c r="A484" t="n">
+      <c r="I484" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J484" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K484" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L484" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B484" t="inlineStr">
+      <c r="B485" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C484" t="inlineStr">
-        <is>
-          <t>card</t>
-        </is>
-      </c>
-      <c r="D484" t="n">
-        <v>1</v>
-      </c>
-      <c r="E484" t="inlineStr">
+      <c r="C485" s="2" t="inlineStr">
+        <is>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="D485" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E485" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F484" t="inlineStr">
+      <c r="F485" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G484" t="b">
-        <v>1</v>
-      </c>
-      <c r="H484" t="inlineStr">
+      <c r="G485" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H485" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I484" t="b">
-        <v>1</v>
-      </c>
-      <c r="J484" t="inlineStr">
+      <c r="I485" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J485" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K485" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L485" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B486" s="2" t="inlineStr">
+        <is>
+          <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
+        </is>
+      </c>
+      <c r="C486" s="2" t="inlineStr">
+        <is>
+          <t>speed</t>
+        </is>
+      </c>
+      <c r="D486" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E486" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F486" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G486" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H486" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K484" t="b">
-        <v>1</v>
-      </c>
-      <c r="L484" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="485">
-      <c r="A485" t="n">
+      <c r="I486" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J486" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K486" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L486" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B485" t="inlineStr">
+      <c r="B487" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C485" t="inlineStr">
-        <is>
-          <t>write</t>
-        </is>
-      </c>
-      <c r="D485" t="n">
-        <v>2</v>
-      </c>
-      <c r="E485" t="inlineStr">
+      <c r="C487" s="2" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D487" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E487" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F485" t="inlineStr">
+      <c r="F487" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G485" t="b">
-        <v>1</v>
-      </c>
-      <c r="H485" t="inlineStr">
+      <c r="G487" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H487" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I485" t="b">
-        <v>1</v>
-      </c>
-      <c r="J485" t="inlineStr">
+      <c r="I487" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J487" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K487" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L487" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B488" s="2" t="inlineStr">
+        <is>
+          <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
+        </is>
+      </c>
+      <c r="C488" s="2" t="inlineStr">
+        <is>
+          <t>too</t>
+        </is>
+      </c>
+      <c r="D488" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E488" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F488" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G488" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H488" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K485" t="b">
-        <v>1</v>
-      </c>
-      <c r="L485" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="486">
-      <c r="A486" t="n">
+      <c r="I488" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J488" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K488" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L488" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B486" t="inlineStr">
+      <c r="B489" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C486" t="inlineStr">
-        <is>
-          <t>speed</t>
-        </is>
-      </c>
-      <c r="D486" t="n">
-        <v>3</v>
-      </c>
-      <c r="E486" t="inlineStr">
+      <c r="C489" s="2" t="inlineStr">
+        <is>
+          <t>slow</t>
+        </is>
+      </c>
+      <c r="D489" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E489" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F489" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F486" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G486" t="b">
-        <v>1</v>
-      </c>
-      <c r="H486" t="inlineStr">
+      <c r="G489" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H489" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I486" t="b">
-        <v>1</v>
-      </c>
-      <c r="J486" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K486" t="b">
-        <v>1</v>
-      </c>
-      <c r="L486" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="487">
-      <c r="A487" t="n">
+      <c r="I489" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J489" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K489" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L489" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="n">
         <v>45</v>
       </c>
-      <c r="B487" t="inlineStr">
+      <c r="B490" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C487" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D487" t="n">
-        <v>4</v>
-      </c>
-      <c r="E487" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F487" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G487" t="b">
-        <v>1</v>
-      </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I487" t="b">
-        <v>1</v>
-      </c>
-      <c r="J487" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K487" t="b">
-        <v>1</v>
-      </c>
-      <c r="L487" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="488">
-      <c r="A488" t="n">
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>Not</t>
+        </is>
+      </c>
+      <c r="D490" t="n">
+        <v>7</v>
+      </c>
+      <c r="E490" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="F490" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G490" t="b">
+        <v>1</v>
+      </c>
+      <c r="H490" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I490" t="b">
+        <v>1</v>
+      </c>
+      <c r="J490" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K490" t="b">
+        <v>1</v>
+      </c>
+      <c r="L490" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="n">
         <v>45</v>
       </c>
-      <c r="B488" t="inlineStr">
+      <c r="B491" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C488" t="inlineStr">
-        <is>
-          <t>too</t>
-        </is>
-      </c>
-      <c r="D488" t="n">
-        <v>5</v>
-      </c>
-      <c r="E488" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F488" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G488" t="b">
-        <v>1</v>
-      </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I488" t="b">
-        <v>1</v>
-      </c>
-      <c r="J488" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K488" t="b">
-        <v>1</v>
-      </c>
-      <c r="L488" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="489">
-      <c r="A489" t="n">
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>suitable</t>
+        </is>
+      </c>
+      <c r="D491" t="n">
+        <v>8</v>
+      </c>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F491" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G491" t="b">
+        <v>1</v>
+      </c>
+      <c r="H491" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I491" t="b">
+        <v>1</v>
+      </c>
+      <c r="J491" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K491" t="b">
+        <v>1</v>
+      </c>
+      <c r="L491" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="n">
         <v>45</v>
       </c>
-      <c r="B489" t="inlineStr">
+      <c r="B492" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C489" t="inlineStr">
-        <is>
-          <t>slow</t>
-        </is>
-      </c>
-      <c r="D489" t="n">
-        <v>6</v>
-      </c>
-      <c r="E489" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F489" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G489" t="b">
-        <v>1</v>
-      </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I489" t="b">
-        <v>1</v>
-      </c>
-      <c r="J489" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K489" t="b">
-        <v>1</v>
-      </c>
-      <c r="L489" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="490">
-      <c r="A490" s="2" t="n">
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>for</t>
+        </is>
+      </c>
+      <c r="D492" t="n">
+        <v>9</v>
+      </c>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F492" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G492" t="b">
+        <v>1</v>
+      </c>
+      <c r="H492" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I492" t="b">
+        <v>1</v>
+      </c>
+      <c r="J492" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K492" t="b">
+        <v>1</v>
+      </c>
+      <c r="L492" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="n">
         <v>45</v>
       </c>
-      <c r="B490" s="2" t="inlineStr">
+      <c r="B493" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C490" s="2" t="inlineStr">
-        <is>
-          <t>Not</t>
-        </is>
-      </c>
-      <c r="D490" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E490" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F490" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G490" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H490" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I490" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J490" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K490" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L490" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="491">
-      <c r="A491" s="2" t="n">
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>shooting</t>
+        </is>
+      </c>
+      <c r="D493" t="n">
+        <v>10</v>
+      </c>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F493" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G493" t="b">
+        <v>1</v>
+      </c>
+      <c r="H493" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I493" t="b">
+        <v>1</v>
+      </c>
+      <c r="J493" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K493" t="b">
+        <v>1</v>
+      </c>
+      <c r="L493" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="n">
         <v>45</v>
       </c>
-      <c r="B491" s="2" t="inlineStr">
+      <c r="B494" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C491" s="2" t="inlineStr">
-        <is>
-          <t>suitable</t>
-        </is>
-      </c>
-      <c r="D491" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E491" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F491" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G491" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H491" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I491" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J491" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K491" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L491" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="492">
-      <c r="A492" s="2" t="n">
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="D494" t="n">
+        <v>11</v>
+      </c>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F494" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G494" t="b">
+        <v>1</v>
+      </c>
+      <c r="H494" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I494" t="b">
+        <v>1</v>
+      </c>
+      <c r="J494" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K494" t="b">
+        <v>1</v>
+      </c>
+      <c r="L494" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="n">
         <v>45</v>
       </c>
-      <c r="B492" s="2" t="inlineStr">
+      <c r="B495" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C492" s="2" t="inlineStr">
-        <is>
-          <t>for</t>
-        </is>
-      </c>
-      <c r="D492" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="E492" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F492" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G492" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H492" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I492" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J492" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K492" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L492" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="493">
-      <c r="A493" s="2" t="n">
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>4K</t>
+        </is>
+      </c>
+      <c r="D495" t="n">
+        <v>12</v>
+      </c>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F495" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G495" t="b">
+        <v>1</v>
+      </c>
+      <c r="H495" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I495" t="b">
+        <v>1</v>
+      </c>
+      <c r="J495" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K495" t="b">
+        <v>1</v>
+      </c>
+      <c r="L495" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="n">
         <v>45</v>
       </c>
-      <c r="B493" s="2" t="inlineStr">
+      <c r="B496" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C493" s="2" t="inlineStr">
-        <is>
-          <t>shooting</t>
-        </is>
-      </c>
-      <c r="D493" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E493" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F493" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G493" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H493" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I493" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J493" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K493" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L493" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="494">
-      <c r="A494" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B494" s="2" t="inlineStr">
-        <is>
-          <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
-        </is>
-      </c>
-      <c r="C494" s="2" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="D494" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="E494" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F494" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G494" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H494" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I494" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J494" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K494" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L494" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="495">
-      <c r="A495" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B495" s="2" t="inlineStr">
-        <is>
-          <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
-        </is>
-      </c>
-      <c r="C495" s="2" t="inlineStr">
-        <is>
-          <t>4K</t>
-        </is>
-      </c>
-      <c r="D495" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="E495" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F495" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G495" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H495" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I495" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J495" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K495" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L495" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="496">
-      <c r="A496" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B496" s="2" t="inlineStr">
-        <is>
-          <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
-        </is>
-      </c>
-      <c r="C496" s="2" t="inlineStr">
+      <c r="C496" t="inlineStr">
         <is>
           <t>video</t>
         </is>
       </c>
-      <c r="D496" s="2" t="n">
+      <c r="D496" t="n">
         <v>13</v>
       </c>
-      <c r="E496" s="2" t="inlineStr">
+      <c r="E496" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F496" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G496" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H496" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I496" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J496" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K496" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L496" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F496" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G496" t="b">
+        <v>1</v>
+      </c>
+      <c r="H496" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I496" t="b">
+        <v>1</v>
+      </c>
+      <c r="J496" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K496" t="b">
+        <v>1</v>
+      </c>
+      <c r="L496" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem2/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem2/67/word_level_predictions_67.xlsx
@@ -502,156 +502,156 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>IMU calibration required Calibrate IMU .</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>IMU</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="D2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L2" t="inlineStr">
+      <c r="G2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="inlineStr">
+      <c r="A3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>IMU calibration required Calibrate IMU .</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>calibration</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L3" t="inlineStr">
+      <c r="D3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="inlineStr">
+      <c r="A4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>IMU calibration required Calibrate IMU .</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="2" t="inlineStr">
         <is>
           <t>required</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -681,7 +681,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G5" s="2" t="b">
@@ -693,11 +693,11 @@
         </is>
       </c>
       <c r="I5" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K5" s="2" t="b">
@@ -993,7 +993,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G11" s="2" t="b">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G12" s="2" t="b">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G13" s="2" t="b">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G14" s="2" t="b">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G15" s="2" t="b">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1513,7 +1513,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G21" s="2" t="b">
@@ -1537,161 +1537,161 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>1</v>
-      </c>
-      <c r="B22" t="inlineStr">
+      <c r="A22" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C22" s="2" t="inlineStr">
         <is>
           <t>Fly</t>
         </is>
       </c>
-      <c r="D22" t="n">
+      <c r="D22" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E22" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G22" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I22" t="b">
-        <v>1</v>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K22" t="b">
-        <v>1</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
-        <v>1</v>
-      </c>
-      <c r="B23" t="inlineStr">
+      <c r="A23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C23" s="2" t="inlineStr">
         <is>
           <t>with</t>
         </is>
       </c>
-      <c r="D23" t="n">
+      <c r="D23" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G23" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I23" t="b">
-        <v>1</v>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K23" t="b">
-        <v>1</v>
-      </c>
-      <c r="L23" t="inlineStr">
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
-        <v>1</v>
-      </c>
-      <c r="B24" t="inlineStr">
+      <c r="A24" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C24" s="2" t="inlineStr">
         <is>
           <t>caution</t>
         </is>
       </c>
-      <c r="D24" t="n">
+      <c r="D24" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E24" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G24" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I24" t="b">
-        <v>1</v>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K24" t="b">
-        <v>1</v>
-      </c>
-      <c r="L24" t="inlineStr">
+      <c r="G24" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -1750,470 +1750,470 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="n">
+      <c r="A26" t="n">
         <v>2</v>
       </c>
-      <c r="B26" s="2" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>Critical low battery Return to home or land promptly .</t>
         </is>
       </c>
-      <c r="C26" s="2" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>Critical</t>
         </is>
       </c>
-      <c r="D26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F26" s="2" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G26" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L26" s="2" t="inlineStr">
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K26" t="b">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="n">
+      <c r="A27" t="n">
         <v>2</v>
       </c>
-      <c r="B27" s="2" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>Critical low battery Return to home or land promptly .</t>
         </is>
       </c>
-      <c r="C27" s="2" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>low</t>
         </is>
       </c>
-      <c r="D27" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L27" s="2" t="inlineStr">
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I27" t="b">
+        <v>1</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K27" t="b">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="n">
+      <c r="A28" t="n">
         <v>2</v>
       </c>
-      <c r="B28" s="2" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>Critical low battery Return to home or land promptly .</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>battery</t>
         </is>
       </c>
-      <c r="D28" s="2" t="n">
+      <c r="D28" t="n">
         <v>2</v>
       </c>
-      <c r="E28" s="2" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F28" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G28" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I28" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K28" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L28" s="2" t="inlineStr">
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I28" t="b">
+        <v>1</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K28" t="b">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
+      <c r="A29" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" s="2" t="inlineStr">
         <is>
           <t>Critical low battery Return to home or land promptly .</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C29" s="2" t="inlineStr">
         <is>
           <t>Return</t>
         </is>
       </c>
-      <c r="D29" t="n">
+      <c r="D29" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="E29" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I29" t="b">
-        <v>1</v>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K29" t="b">
-        <v>1</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
+      <c r="A30" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" s="2" t="inlineStr">
         <is>
           <t>Critical low battery Return to home or land promptly .</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C30" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D30" t="n">
+      <c r="D30" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I30" t="b">
-        <v>1</v>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K30" t="b">
-        <v>1</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
+      <c r="A31" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" s="2" t="inlineStr">
         <is>
           <t>Critical low battery Return to home or land promptly .</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C31" s="2" t="inlineStr">
         <is>
           <t>home</t>
         </is>
       </c>
-      <c r="D31" t="n">
+      <c r="D31" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G31" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I31" t="b">
-        <v>1</v>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K31" t="b">
-        <v>1</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
+      <c r="A32" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" s="2" t="inlineStr">
         <is>
           <t>Critical low battery Return to home or land promptly .</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C32" s="2" t="inlineStr">
         <is>
           <t>or</t>
         </is>
       </c>
-      <c r="D32" t="n">
+      <c r="D32" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G32" t="b">
-        <v>1</v>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I32" t="b">
-        <v>1</v>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K32" t="b">
-        <v>1</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
+      <c r="A33" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" s="2" t="inlineStr">
         <is>
           <t>Critical low battery Return to home or land promptly .</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C33" s="2" t="inlineStr">
         <is>
           <t>land</t>
         </is>
       </c>
-      <c r="D33" t="n">
+      <c r="D33" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G33" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I33" t="b">
-        <v>1</v>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K33" t="b">
-        <v>1</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
+      <c r="A34" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" s="2" t="inlineStr">
         <is>
           <t>Critical low battery Return to home or land promptly .</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C34" s="2" t="inlineStr">
         <is>
           <t>promptly</t>
         </is>
       </c>
-      <c r="D34" t="n">
+      <c r="D34" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="E34" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G34" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I34" t="b">
-        <v>1</v>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K34" t="b">
-        <v>1</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -2345,7 +2345,7 @@
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G37" s="2" t="b">
@@ -2369,7 +2369,7 @@
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -2397,7 +2397,7 @@
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>O</t>
         </is>
       </c>
       <c r="G38" s="2" t="b">
@@ -2421,7 +2421,7 @@
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Missed_E-Event</t>
         </is>
       </c>
     </row>
@@ -2894,158 +2894,158 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n">
+      <c r="A48" t="n">
         <v>4</v>
       </c>
-      <c r="B48" s="2" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C48" s="2" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>RTH</t>
         </is>
       </c>
-      <c r="D48" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" s="2" t="inlineStr">
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F48" s="2" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G48" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I48" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J48" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K48" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L48" s="2" t="inlineStr">
+      <c r="G48" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I48" t="b">
+        <v>1</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K48" t="b">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n">
+      <c r="A49" t="n">
         <v>4</v>
       </c>
-      <c r="B49" s="2" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C49" s="2" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D49" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F49" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G49" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I49" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J49" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K49" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L49" s="2" t="inlineStr">
+      <c r="D49" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G49" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I49" t="b">
+        <v>1</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K49" t="b">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="n">
+      <c r="A50" t="n">
         <v>4</v>
       </c>
-      <c r="B50" s="2" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C50" s="2" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>98FT</t>
         </is>
       </c>
-      <c r="D50" s="2" t="n">
+      <c r="D50" t="n">
         <v>2</v>
       </c>
-      <c r="E50" s="2" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F50" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G50" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I50" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J50" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K50" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L50" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G50" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I50" t="b">
+        <v>1</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K50" t="b">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4246,156 +4246,156 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="n">
+      <c r="A74" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" s="2" t="inlineStr">
         <is>
           <t>Visual positioning inaccurate Fly with caution .</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="C74" s="2" t="inlineStr">
         <is>
           <t>Fly</t>
         </is>
       </c>
-      <c r="D74" t="n">
+      <c r="D74" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="E74" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G74" t="b">
-        <v>1</v>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I74" t="b">
-        <v>1</v>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K74" t="b">
-        <v>1</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F74" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G74" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H74" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I74" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J74" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K74" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L74" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="n">
+      <c r="A75" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" s="2" t="inlineStr">
         <is>
           <t>Visual positioning inaccurate Fly with caution .</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="C75" s="2" t="inlineStr">
         <is>
           <t>with</t>
         </is>
       </c>
-      <c r="D75" t="n">
+      <c r="D75" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G75" t="b">
-        <v>1</v>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I75" t="b">
-        <v>1</v>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K75" t="b">
-        <v>1</v>
-      </c>
-      <c r="L75" t="inlineStr">
+      <c r="E75" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F75" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G75" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H75" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I75" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J75" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K75" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L75" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="n">
+      <c r="A76" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" s="2" t="inlineStr">
         <is>
           <t>Visual positioning inaccurate Fly with caution .</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="C76" s="2" t="inlineStr">
         <is>
           <t>caution</t>
         </is>
       </c>
-      <c r="D76" t="n">
+      <c r="D76" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="E76" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="F76" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G76" t="b">
-        <v>1</v>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I76" t="b">
-        <v>1</v>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K76" t="b">
-        <v>1</v>
-      </c>
-      <c r="L76" t="inlineStr">
+      <c r="G76" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H76" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I76" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J76" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K76" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L76" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="F79" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G79" s="2" t="b">
@@ -4553,7 +4553,7 @@
       </c>
       <c r="L79" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4581,7 +4581,7 @@
       </c>
       <c r="F80" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G80" s="2" t="b">
@@ -4605,7 +4605,7 @@
       </c>
       <c r="L80" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -6118,156 +6118,156 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="n">
+      <c r="A110" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="B110" s="2" t="inlineStr">
         <is>
           <t>Critical low battery Recharge promptly .</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="C110" s="2" t="inlineStr">
         <is>
           <t>Critical</t>
         </is>
       </c>
-      <c r="D110" t="n">
-        <v>0</v>
-      </c>
-      <c r="E110" t="inlineStr">
+      <c r="D110" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E110" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="F110" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G110" t="b">
-        <v>1</v>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I110" t="b">
-        <v>1</v>
-      </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K110" t="b">
-        <v>1</v>
-      </c>
-      <c r="L110" t="inlineStr">
+      <c r="G110" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H110" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I110" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J110" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K110" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L110" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="n">
+      <c r="A111" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B111" t="inlineStr">
+      <c r="B111" s="2" t="inlineStr">
         <is>
           <t>Critical low battery Recharge promptly .</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="C111" s="2" t="inlineStr">
         <is>
           <t>low</t>
         </is>
       </c>
-      <c r="D111" t="n">
-        <v>1</v>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G111" t="b">
-        <v>1</v>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I111" t="b">
-        <v>1</v>
-      </c>
-      <c r="J111" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K111" t="b">
-        <v>1</v>
-      </c>
-      <c r="L111" t="inlineStr">
+      <c r="D111" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E111" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F111" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G111" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H111" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I111" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J111" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K111" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L111" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="n">
+      <c r="A112" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="B112" s="2" t="inlineStr">
         <is>
           <t>Critical low battery Recharge promptly .</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="C112" s="2" t="inlineStr">
         <is>
           <t>battery</t>
         </is>
       </c>
-      <c r="D112" t="n">
+      <c r="D112" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="E112" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G112" t="b">
-        <v>1</v>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I112" t="b">
-        <v>1</v>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K112" t="b">
-        <v>1</v>
-      </c>
-      <c r="L112" t="inlineStr">
+      <c r="F112" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G112" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H112" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I112" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J112" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K112" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L112" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -6297,7 +6297,7 @@
       </c>
       <c r="F113" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G113" s="2" t="b">
@@ -6309,11 +6309,11 @@
         </is>
       </c>
       <c r="I113" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K113" s="2" t="b">
@@ -6349,7 +6349,7 @@
       </c>
       <c r="F114" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G114" s="2" t="b">
@@ -6373,7 +6373,7 @@
       </c>
       <c r="L114" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6430,156 +6430,156 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="2" t="n">
+      <c r="A116" t="n">
         <v>12</v>
       </c>
-      <c r="B116" s="2" t="inlineStr">
+      <c r="B116" t="inlineStr">
         <is>
           <t>Vision sensor(s) blocked Fly with caution .</t>
         </is>
       </c>
-      <c r="C116" s="2" t="inlineStr">
+      <c r="C116" t="inlineStr">
         <is>
           <t>Vision</t>
         </is>
       </c>
-      <c r="D116" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E116" s="2" t="inlineStr">
+      <c r="D116" t="n">
+        <v>0</v>
+      </c>
+      <c r="E116" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F116" s="2" t="inlineStr">
+      <c r="F116" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G116" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H116" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I116" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J116" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K116" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L116" s="2" t="inlineStr">
+      <c r="G116" t="b">
+        <v>1</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I116" t="b">
+        <v>1</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K116" t="b">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="2" t="n">
+      <c r="A117" t="n">
         <v>12</v>
       </c>
-      <c r="B117" s="2" t="inlineStr">
+      <c r="B117" t="inlineStr">
         <is>
           <t>Vision sensor(s) blocked Fly with caution .</t>
         </is>
       </c>
-      <c r="C117" s="2" t="inlineStr">
+      <c r="C117" t="inlineStr">
         <is>
           <t>sensor(s)</t>
         </is>
       </c>
-      <c r="D117" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E117" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F117" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G117" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H117" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I117" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J117" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K117" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L117" s="2" t="inlineStr">
+      <c r="D117" t="n">
+        <v>1</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G117" t="b">
+        <v>1</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I117" t="b">
+        <v>1</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K117" t="b">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="2" t="n">
+      <c r="A118" t="n">
         <v>12</v>
       </c>
-      <c r="B118" s="2" t="inlineStr">
+      <c r="B118" t="inlineStr">
         <is>
           <t>Vision sensor(s) blocked Fly with caution .</t>
         </is>
       </c>
-      <c r="C118" s="2" t="inlineStr">
+      <c r="C118" t="inlineStr">
         <is>
           <t>blocked</t>
         </is>
       </c>
-      <c r="D118" s="2" t="n">
+      <c r="D118" t="n">
         <v>2</v>
       </c>
-      <c r="E118" s="2" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F118" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G118" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H118" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I118" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J118" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K118" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L118" s="2" t="inlineStr">
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G118" t="b">
+        <v>1</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I118" t="b">
+        <v>1</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K118" t="b">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -6609,7 +6609,7 @@
       </c>
       <c r="F119" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G119" s="2" t="b">
@@ -6621,11 +6621,11 @@
         </is>
       </c>
       <c r="I119" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K119" s="2" t="b">
@@ -6633,7 +6633,7 @@
       </c>
       <c r="L119" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -6661,7 +6661,7 @@
       </c>
       <c r="F120" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G120" s="2" t="b">
@@ -6673,11 +6673,11 @@
         </is>
       </c>
       <c r="I120" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K120" s="2" t="b">
@@ -6685,7 +6685,7 @@
       </c>
       <c r="L120" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -6713,7 +6713,7 @@
       </c>
       <c r="F121" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G121" s="2" t="b">
@@ -6725,11 +6725,11 @@
         </is>
       </c>
       <c r="I121" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K121" s="2" t="b">
@@ -6737,7 +6737,7 @@
       </c>
       <c r="L121" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -6898,676 +6898,676 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="n">
+      <c r="A125" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B125" t="inlineStr">
+      <c r="B125" s="2" t="inlineStr">
         <is>
           <t>Compass interference Please move the aircraft away from potential interference source or calibrate the compass .</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
+      <c r="C125" s="2" t="inlineStr">
         <is>
           <t>Please</t>
         </is>
       </c>
-      <c r="D125" t="n">
+      <c r="D125" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E125" t="inlineStr">
+      <c r="E125" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G125" t="b">
-        <v>1</v>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I125" t="b">
-        <v>1</v>
-      </c>
-      <c r="J125" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K125" t="b">
-        <v>1</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F125" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G125" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H125" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I125" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J125" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K125" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L125" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="n">
+      <c r="A126" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B126" t="inlineStr">
+      <c r="B126" s="2" t="inlineStr">
         <is>
           <t>Compass interference Please move the aircraft away from potential interference source or calibrate the compass .</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
+      <c r="C126" s="2" t="inlineStr">
         <is>
           <t>move</t>
         </is>
       </c>
-      <c r="D126" t="n">
+      <c r="D126" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G126" t="b">
-        <v>1</v>
-      </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I126" t="b">
-        <v>1</v>
-      </c>
-      <c r="J126" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K126" t="b">
-        <v>1</v>
-      </c>
-      <c r="L126" t="inlineStr">
+      <c r="E126" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F126" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G126" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H126" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I126" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J126" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K126" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L126" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="n">
+      <c r="A127" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B127" t="inlineStr">
+      <c r="B127" s="2" t="inlineStr">
         <is>
           <t>Compass interference Please move the aircraft away from potential interference source or calibrate the compass .</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
+      <c r="C127" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D127" t="n">
+      <c r="D127" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G127" t="b">
-        <v>1</v>
-      </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I127" t="b">
-        <v>1</v>
-      </c>
-      <c r="J127" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K127" t="b">
-        <v>1</v>
-      </c>
-      <c r="L127" t="inlineStr">
+      <c r="E127" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F127" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G127" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H127" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I127" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J127" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K127" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L127" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="n">
+      <c r="A128" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B128" t="inlineStr">
+      <c r="B128" s="2" t="inlineStr">
         <is>
           <t>Compass interference Please move the aircraft away from potential interference source or calibrate the compass .</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
+      <c r="C128" s="2" t="inlineStr">
         <is>
           <t>aircraft</t>
         </is>
       </c>
-      <c r="D128" t="n">
+      <c r="D128" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G128" t="b">
-        <v>1</v>
-      </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I128" t="b">
-        <v>1</v>
-      </c>
-      <c r="J128" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K128" t="b">
-        <v>1</v>
-      </c>
-      <c r="L128" t="inlineStr">
+      <c r="E128" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F128" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G128" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H128" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I128" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J128" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K128" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L128" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="n">
+      <c r="A129" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B129" t="inlineStr">
+      <c r="B129" s="2" t="inlineStr">
         <is>
           <t>Compass interference Please move the aircraft away from potential interference source or calibrate the compass .</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
+      <c r="C129" s="2" t="inlineStr">
         <is>
           <t>away</t>
         </is>
       </c>
-      <c r="D129" t="n">
+      <c r="D129" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G129" t="b">
-        <v>1</v>
-      </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I129" t="b">
-        <v>1</v>
-      </c>
-      <c r="J129" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K129" t="b">
-        <v>1</v>
-      </c>
-      <c r="L129" t="inlineStr">
+      <c r="E129" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F129" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G129" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H129" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I129" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J129" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K129" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L129" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="n">
+      <c r="A130" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B130" t="inlineStr">
+      <c r="B130" s="2" t="inlineStr">
         <is>
           <t>Compass interference Please move the aircraft away from potential interference source or calibrate the compass .</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr">
+      <c r="C130" s="2" t="inlineStr">
         <is>
           <t>from</t>
         </is>
       </c>
-      <c r="D130" t="n">
+      <c r="D130" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G130" t="b">
-        <v>1</v>
-      </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I130" t="b">
-        <v>1</v>
-      </c>
-      <c r="J130" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K130" t="b">
-        <v>1</v>
-      </c>
-      <c r="L130" t="inlineStr">
+      <c r="E130" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F130" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G130" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H130" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I130" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J130" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K130" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L130" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="n">
+      <c r="A131" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B131" t="inlineStr">
+      <c r="B131" s="2" t="inlineStr">
         <is>
           <t>Compass interference Please move the aircraft away from potential interference source or calibrate the compass .</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
+      <c r="C131" s="2" t="inlineStr">
         <is>
           <t>potential</t>
         </is>
       </c>
-      <c r="D131" t="n">
+      <c r="D131" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G131" t="b">
-        <v>1</v>
-      </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I131" t="b">
-        <v>1</v>
-      </c>
-      <c r="J131" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K131" t="b">
-        <v>1</v>
-      </c>
-      <c r="L131" t="inlineStr">
+      <c r="E131" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F131" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G131" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H131" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I131" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J131" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K131" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L131" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="n">
+      <c r="A132" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B132" t="inlineStr">
+      <c r="B132" s="2" t="inlineStr">
         <is>
           <t>Compass interference Please move the aircraft away from potential interference source or calibrate the compass .</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
+      <c r="C132" s="2" t="inlineStr">
         <is>
           <t>interference</t>
         </is>
       </c>
-      <c r="D132" t="n">
+      <c r="D132" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G132" t="b">
-        <v>1</v>
-      </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I132" t="b">
-        <v>1</v>
-      </c>
-      <c r="J132" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K132" t="b">
-        <v>1</v>
-      </c>
-      <c r="L132" t="inlineStr">
+      <c r="E132" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F132" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G132" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H132" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I132" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J132" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K132" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L132" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="n">
+      <c r="A133" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B133" t="inlineStr">
+      <c r="B133" s="2" t="inlineStr">
         <is>
           <t>Compass interference Please move the aircraft away from potential interference source or calibrate the compass .</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
+      <c r="C133" s="2" t="inlineStr">
         <is>
           <t>source</t>
         </is>
       </c>
-      <c r="D133" t="n">
+      <c r="D133" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G133" t="b">
-        <v>1</v>
-      </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I133" t="b">
-        <v>1</v>
-      </c>
-      <c r="J133" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K133" t="b">
-        <v>1</v>
-      </c>
-      <c r="L133" t="inlineStr">
+      <c r="E133" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F133" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G133" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H133" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I133" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J133" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K133" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L133" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="n">
+      <c r="A134" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B134" t="inlineStr">
+      <c r="B134" s="2" t="inlineStr">
         <is>
           <t>Compass interference Please move the aircraft away from potential interference source or calibrate the compass .</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr">
+      <c r="C134" s="2" t="inlineStr">
         <is>
           <t>or</t>
         </is>
       </c>
-      <c r="D134" t="n">
+      <c r="D134" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G134" t="b">
-        <v>1</v>
-      </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I134" t="b">
-        <v>1</v>
-      </c>
-      <c r="J134" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K134" t="b">
-        <v>1</v>
-      </c>
-      <c r="L134" t="inlineStr">
+      <c r="E134" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F134" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G134" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H134" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I134" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J134" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K134" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L134" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="n">
+      <c r="A135" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B135" t="inlineStr">
+      <c r="B135" s="2" t="inlineStr">
         <is>
           <t>Compass interference Please move the aircraft away from potential interference source or calibrate the compass .</t>
         </is>
       </c>
-      <c r="C135" t="inlineStr">
+      <c r="C135" s="2" t="inlineStr">
         <is>
           <t>calibrate</t>
         </is>
       </c>
-      <c r="D135" t="n">
+      <c r="D135" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G135" t="b">
-        <v>1</v>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I135" t="b">
-        <v>1</v>
-      </c>
-      <c r="J135" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K135" t="b">
-        <v>1</v>
-      </c>
-      <c r="L135" t="inlineStr">
+      <c r="E135" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F135" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G135" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H135" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I135" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J135" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K135" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L135" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="n">
+      <c r="A136" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B136" t="inlineStr">
+      <c r="B136" s="2" t="inlineStr">
         <is>
           <t>Compass interference Please move the aircraft away from potential interference source or calibrate the compass .</t>
         </is>
       </c>
-      <c r="C136" t="inlineStr">
+      <c r="C136" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D136" t="n">
+      <c r="D136" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G136" t="b">
-        <v>1</v>
-      </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I136" t="b">
-        <v>1</v>
-      </c>
-      <c r="J136" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K136" t="b">
-        <v>1</v>
-      </c>
-      <c r="L136" t="inlineStr">
+      <c r="E136" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F136" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G136" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H136" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I136" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J136" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K136" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L136" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="n">
+      <c r="A137" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B137" t="inlineStr">
+      <c r="B137" s="2" t="inlineStr">
         <is>
           <t>Compass interference Please move the aircraft away from potential interference source or calibrate the compass .</t>
         </is>
       </c>
-      <c r="C137" t="inlineStr">
+      <c r="C137" s="2" t="inlineStr">
         <is>
           <t>compass</t>
         </is>
       </c>
-      <c r="D137" t="n">
+      <c r="D137" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E137" t="inlineStr">
+      <c r="E137" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
+      <c r="F137" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G137" t="b">
-        <v>1</v>
-      </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I137" t="b">
-        <v>1</v>
-      </c>
-      <c r="J137" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K137" t="b">
-        <v>1</v>
-      </c>
-      <c r="L137" t="inlineStr">
+      <c r="G137" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H137" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I137" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J137" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K137" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L137" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -7990,416 +7990,416 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="n">
+      <c r="A146" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B146" t="inlineStr">
+      <c r="B146" s="2" t="inlineStr">
         <is>
           <t>Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C146" t="inlineStr">
+      <c r="C146" s="2" t="inlineStr">
         <is>
           <t>Lower</t>
         </is>
       </c>
-      <c r="D146" t="n">
+      <c r="D146" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E146" t="inlineStr">
+      <c r="E146" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G146" t="b">
-        <v>1</v>
-      </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I146" t="b">
-        <v>1</v>
-      </c>
-      <c r="J146" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K146" t="b">
-        <v>1</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F146" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G146" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H146" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I146" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J146" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K146" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L146" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="n">
+      <c r="A147" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B147" t="inlineStr">
+      <c r="B147" s="2" t="inlineStr">
         <is>
           <t>Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C147" t="inlineStr">
+      <c r="C147" s="2" t="inlineStr">
         <is>
           <t>altitude</t>
         </is>
       </c>
-      <c r="D147" t="n">
+      <c r="D147" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G147" t="b">
-        <v>1</v>
-      </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I147" t="b">
-        <v>1</v>
-      </c>
-      <c r="J147" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K147" t="b">
-        <v>1</v>
-      </c>
-      <c r="L147" t="inlineStr">
+      <c r="E147" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F147" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G147" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H147" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I147" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J147" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K147" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L147" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="n">
+      <c r="A148" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B148" t="inlineStr">
+      <c r="B148" s="2" t="inlineStr">
         <is>
           <t>Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C148" t="inlineStr">
+      <c r="C148" s="2" t="inlineStr">
         <is>
           <t>immediately</t>
         </is>
       </c>
-      <c r="D148" t="n">
+      <c r="D148" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G148" t="b">
-        <v>1</v>
-      </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I148" t="b">
-        <v>1</v>
-      </c>
-      <c r="J148" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K148" t="b">
-        <v>1</v>
-      </c>
-      <c r="L148" t="inlineStr">
+      <c r="E148" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F148" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G148" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H148" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I148" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J148" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K148" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L148" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="n">
+      <c r="A149" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B149" t="inlineStr">
+      <c r="B149" s="2" t="inlineStr">
         <is>
           <t>Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C149" t="inlineStr">
+      <c r="C149" s="2" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D149" t="n">
+      <c r="D149" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G149" t="b">
-        <v>1</v>
-      </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I149" t="b">
-        <v>1</v>
-      </c>
-      <c r="J149" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K149" t="b">
-        <v>1</v>
-      </c>
-      <c r="L149" t="inlineStr">
+      <c r="E149" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F149" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G149" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H149" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I149" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J149" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K149" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L149" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="n">
+      <c r="A150" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B150" t="inlineStr">
+      <c r="B150" s="2" t="inlineStr">
         <is>
           <t>Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C150" t="inlineStr">
+      <c r="C150" s="2" t="inlineStr">
         <is>
           <t>return</t>
         </is>
       </c>
-      <c r="D150" t="n">
+      <c r="D150" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G150" t="b">
-        <v>1</v>
-      </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I150" t="b">
-        <v>1</v>
-      </c>
-      <c r="J150" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K150" t="b">
-        <v>1</v>
-      </c>
-      <c r="L150" t="inlineStr">
+      <c r="E150" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F150" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G150" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H150" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I150" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J150" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K150" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L150" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="n">
+      <c r="A151" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B151" t="inlineStr">
+      <c r="B151" s="2" t="inlineStr">
         <is>
           <t>Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C151" t="inlineStr">
+      <c r="C151" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D151" t="n">
+      <c r="D151" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G151" t="b">
-        <v>1</v>
-      </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I151" t="b">
-        <v>1</v>
-      </c>
-      <c r="J151" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K151" t="b">
-        <v>1</v>
-      </c>
-      <c r="L151" t="inlineStr">
+      <c r="E151" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F151" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G151" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H151" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I151" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J151" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K151" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L151" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="n">
+      <c r="A152" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B152" t="inlineStr">
+      <c r="B152" s="2" t="inlineStr">
         <is>
           <t>Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C152" t="inlineStr">
+      <c r="C152" s="2" t="inlineStr">
         <is>
           <t>home</t>
         </is>
       </c>
-      <c r="D152" t="n">
+      <c r="D152" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G152" t="b">
-        <v>1</v>
-      </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I152" t="b">
-        <v>1</v>
-      </c>
-      <c r="J152" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K152" t="b">
-        <v>1</v>
-      </c>
-      <c r="L152" t="inlineStr">
+      <c r="E152" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F152" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G152" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H152" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I152" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J152" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K152" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L152" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="n">
+      <c r="A153" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B153" t="inlineStr">
+      <c r="B153" s="2" t="inlineStr">
         <is>
           <t>Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C153" t="inlineStr">
+      <c r="C153" s="2" t="inlineStr">
         <is>
           <t>manually</t>
         </is>
       </c>
-      <c r="D153" t="n">
+      <c r="D153" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E153" t="inlineStr">
+      <c r="E153" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
+      <c r="F153" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G153" t="b">
-        <v>1</v>
-      </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I153" t="b">
-        <v>1</v>
-      </c>
-      <c r="J153" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K153" t="b">
-        <v>1</v>
-      </c>
-      <c r="L153" t="inlineStr">
+      <c r="G153" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H153" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I153" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J153" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K153" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L153" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -9157,7 +9157,7 @@
       </c>
       <c r="F168" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G168" s="2" t="b">
@@ -9181,7 +9181,7 @@
       </c>
       <c r="L168" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -9238,364 +9238,364 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="2" t="n">
+      <c r="A170" t="n">
         <v>16</v>
       </c>
-      <c r="B170" s="2" t="inlineStr">
+      <c r="B170" t="inlineStr">
         <is>
           <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C170" s="2" t="inlineStr">
+      <c r="C170" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="D170" s="2" t="n">
+      <c r="D170" t="n">
         <v>5</v>
       </c>
-      <c r="E170" s="2" t="inlineStr">
+      <c r="E170" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F170" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G170" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H170" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I170" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J170" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K170" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L170" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G170" t="b">
+        <v>1</v>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I170" t="b">
+        <v>1</v>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K170" t="b">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="2" t="n">
+      <c r="A171" t="n">
         <v>16</v>
       </c>
-      <c r="B171" s="2" t="inlineStr">
+      <c r="B171" t="inlineStr">
         <is>
           <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C171" s="2" t="inlineStr">
+      <c r="C171" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D171" s="2" t="n">
+      <c r="D171" t="n">
         <v>6</v>
       </c>
-      <c r="E171" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F171" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G171" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H171" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I171" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J171" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K171" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L171" s="2" t="inlineStr">
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G171" t="b">
+        <v>1</v>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I171" t="b">
+        <v>1</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K171" t="b">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="2" t="n">
+      <c r="A172" t="n">
         <v>16</v>
       </c>
-      <c r="B172" s="2" t="inlineStr">
+      <c r="B172" t="inlineStr">
         <is>
           <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C172" s="2" t="inlineStr">
+      <c r="C172" t="inlineStr">
         <is>
           <t>Support</t>
         </is>
       </c>
-      <c r="D172" s="2" t="n">
+      <c r="D172" t="n">
         <v>7</v>
       </c>
-      <c r="E172" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F172" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G172" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H172" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I172" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J172" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K172" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L172" s="2" t="inlineStr">
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G172" t="b">
+        <v>1</v>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I172" t="b">
+        <v>1</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K172" t="b">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="2" t="n">
+      <c r="A173" t="n">
         <v>16</v>
       </c>
-      <c r="B173" s="2" t="inlineStr">
+      <c r="B173" t="inlineStr">
         <is>
           <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C173" s="2" t="inlineStr">
+      <c r="C173" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D173" s="2" t="n">
+      <c r="D173" t="n">
         <v>8</v>
       </c>
-      <c r="E173" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F173" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G173" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H173" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I173" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J173" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K173" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L173" s="2" t="inlineStr">
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G173" t="b">
+        <v>1</v>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I173" t="b">
+        <v>1</v>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K173" t="b">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="2" t="n">
+      <c r="A174" t="n">
         <v>16</v>
       </c>
-      <c r="B174" s="2" t="inlineStr">
+      <c r="B174" t="inlineStr">
         <is>
           <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C174" s="2" t="inlineStr">
+      <c r="C174" t="inlineStr">
         <is>
           <t>arrange</t>
         </is>
       </c>
-      <c r="D174" s="2" t="n">
+      <c r="D174" t="n">
         <v>9</v>
       </c>
-      <c r="E174" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F174" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G174" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H174" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I174" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J174" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K174" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L174" s="2" t="inlineStr">
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G174" t="b">
+        <v>1</v>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I174" t="b">
+        <v>1</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K174" t="b">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="2" t="n">
+      <c r="A175" t="n">
         <v>16</v>
       </c>
-      <c r="B175" s="2" t="inlineStr">
+      <c r="B175" t="inlineStr">
         <is>
           <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C175" s="2" t="inlineStr">
+      <c r="C175" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D175" s="2" t="n">
+      <c r="D175" t="n">
         <v>10</v>
       </c>
-      <c r="E175" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F175" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G175" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H175" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I175" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J175" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K175" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L175" s="2" t="inlineStr">
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G175" t="b">
+        <v>1</v>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I175" t="b">
+        <v>1</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K175" t="b">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="2" t="n">
+      <c r="A176" t="n">
         <v>16</v>
       </c>
-      <c r="B176" s="2" t="inlineStr">
+      <c r="B176" t="inlineStr">
         <is>
           <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C176" s="2" t="inlineStr">
+      <c r="C176" t="inlineStr">
         <is>
           <t>repairs</t>
         </is>
       </c>
-      <c r="D176" s="2" t="n">
+      <c r="D176" t="n">
         <v>11</v>
       </c>
-      <c r="E176" s="2" t="inlineStr">
+      <c r="E176" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F176" s="2" t="inlineStr">
+      <c r="F176" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G176" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H176" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I176" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J176" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K176" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L176" s="2" t="inlineStr">
+      <c r="G176" t="b">
+        <v>1</v>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I176" t="b">
+        <v>1</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K176" t="b">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -10353,7 +10353,7 @@
       </c>
       <c r="F191" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G191" s="2" t="b">
@@ -10377,7 +10377,7 @@
       </c>
       <c r="L191" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -10717,7 +10717,7 @@
       </c>
       <c r="F198" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G198" s="2" t="b">
@@ -10741,7 +10741,7 @@
       </c>
       <c r="L198" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10769,7 +10769,7 @@
       </c>
       <c r="F199" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G199" s="2" t="b">
@@ -10793,7 +10793,7 @@
       </c>
       <c r="L199" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -12433,7 +12433,7 @@
       </c>
       <c r="F231" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G231" s="2" t="b">
@@ -12457,7 +12457,7 @@
       </c>
       <c r="L231" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12485,7 +12485,7 @@
       </c>
       <c r="F232" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G232" s="2" t="b">
@@ -12509,7 +12509,7 @@
       </c>
       <c r="L232" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12537,7 +12537,7 @@
       </c>
       <c r="F233" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G233" s="2" t="b">
@@ -12561,7 +12561,7 @@
       </c>
       <c r="L233" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13190,104 +13190,104 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" t="n">
+      <c r="A246" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="B246" t="inlineStr">
+      <c r="B246" s="2" t="inlineStr">
         <is>
           <t>Weak signal Adjust antennas .</t>
         </is>
       </c>
-      <c r="C246" t="inlineStr">
+      <c r="C246" s="2" t="inlineStr">
         <is>
           <t>Weak</t>
         </is>
       </c>
-      <c r="D246" t="n">
-        <v>0</v>
-      </c>
-      <c r="E246" t="inlineStr">
+      <c r="D246" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E246" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F246" t="inlineStr">
+      <c r="F246" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G246" t="b">
-        <v>1</v>
-      </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I246" t="b">
-        <v>1</v>
-      </c>
-      <c r="J246" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K246" t="b">
-        <v>1</v>
-      </c>
-      <c r="L246" t="inlineStr">
+      <c r="G246" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H246" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I246" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J246" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K246" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L246" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="247">
-      <c r="A247" t="n">
+      <c r="A247" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="B247" t="inlineStr">
+      <c r="B247" s="2" t="inlineStr">
         <is>
           <t>Weak signal Adjust antennas .</t>
         </is>
       </c>
-      <c r="C247" t="inlineStr">
+      <c r="C247" s="2" t="inlineStr">
         <is>
           <t>signal</t>
         </is>
       </c>
-      <c r="D247" t="n">
-        <v>1</v>
-      </c>
-      <c r="E247" t="inlineStr">
+      <c r="D247" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E247" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F247" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G247" t="b">
-        <v>1</v>
-      </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I247" t="b">
-        <v>1</v>
-      </c>
-      <c r="J247" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K247" t="b">
-        <v>1</v>
-      </c>
-      <c r="L247" t="inlineStr">
+      <c r="F247" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G247" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H247" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I247" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J247" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K247" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L247" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -13329,11 +13329,11 @@
         </is>
       </c>
       <c r="I248" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J248" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K248" s="2" t="b">
@@ -13369,7 +13369,7 @@
       </c>
       <c r="F249" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G249" s="2" t="b">
@@ -13381,11 +13381,11 @@
         </is>
       </c>
       <c r="I249" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J249" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K249" s="2" t="b">
@@ -13393,7 +13393,7 @@
       </c>
       <c r="L249" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -14409,7 +14409,7 @@
       </c>
       <c r="F269" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G269" s="2" t="b">
@@ -14433,7 +14433,7 @@
       </c>
       <c r="L269" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -14721,7 +14721,7 @@
       </c>
       <c r="F275" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G275" s="2" t="b">
@@ -14745,7 +14745,7 @@
       </c>
       <c r="L275" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -15553,7 +15553,7 @@
       </c>
       <c r="F291" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G291" s="2" t="b">
@@ -15577,7 +15577,7 @@
       </c>
       <c r="L291" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -16073,7 +16073,7 @@
       </c>
       <c r="F301" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G301" s="2" t="b">
@@ -16097,7 +16097,7 @@
       </c>
       <c r="L301" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -16437,7 +16437,7 @@
       </c>
       <c r="F308" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G308" s="2" t="b">
@@ -16461,7 +16461,7 @@
       </c>
       <c r="L308" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -16749,7 +16749,7 @@
       </c>
       <c r="F314" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G314" s="2" t="b">
@@ -16773,7 +16773,7 @@
       </c>
       <c r="L314" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -17009,7 +17009,7 @@
       </c>
       <c r="F319" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G319" s="2" t="b">
@@ -17033,7 +17033,7 @@
       </c>
       <c r="L319" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -17165,7 +17165,7 @@
       </c>
       <c r="F322" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G322" s="2" t="b">
@@ -17189,7 +17189,7 @@
       </c>
       <c r="L322" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -18442,156 +18442,156 @@
       </c>
     </row>
     <row r="347">
-      <c r="A347" s="2" t="n">
+      <c r="A347" t="n">
         <v>31</v>
       </c>
-      <c r="B347" s="2" t="inlineStr">
+      <c r="B347" t="inlineStr">
         <is>
           <t>GPS module error Restart aircraft .</t>
         </is>
       </c>
-      <c r="C347" s="2" t="inlineStr">
+      <c r="C347" t="inlineStr">
         <is>
           <t>GPS</t>
         </is>
       </c>
-      <c r="D347" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E347" s="2" t="inlineStr">
+      <c r="D347" t="n">
+        <v>0</v>
+      </c>
+      <c r="E347" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F347" s="2" t="inlineStr">
+      <c r="F347" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G347" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H347" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I347" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J347" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K347" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L347" s="2" t="inlineStr">
+      <c r="G347" t="b">
+        <v>1</v>
+      </c>
+      <c r="H347" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I347" t="b">
+        <v>1</v>
+      </c>
+      <c r="J347" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K347" t="b">
+        <v>1</v>
+      </c>
+      <c r="L347" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="348">
-      <c r="A348" s="2" t="n">
+      <c r="A348" t="n">
         <v>31</v>
       </c>
-      <c r="B348" s="2" t="inlineStr">
+      <c r="B348" t="inlineStr">
         <is>
           <t>GPS module error Restart aircraft .</t>
         </is>
       </c>
-      <c r="C348" s="2" t="inlineStr">
+      <c r="C348" t="inlineStr">
         <is>
           <t>module</t>
         </is>
       </c>
-      <c r="D348" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E348" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F348" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G348" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H348" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I348" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J348" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K348" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L348" s="2" t="inlineStr">
+      <c r="D348" t="n">
+        <v>1</v>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G348" t="b">
+        <v>1</v>
+      </c>
+      <c r="H348" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I348" t="b">
+        <v>1</v>
+      </c>
+      <c r="J348" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K348" t="b">
+        <v>1</v>
+      </c>
+      <c r="L348" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="349">
-      <c r="A349" s="2" t="n">
+      <c r="A349" t="n">
         <v>31</v>
       </c>
-      <c r="B349" s="2" t="inlineStr">
+      <c r="B349" t="inlineStr">
         <is>
           <t>GPS module error Restart aircraft .</t>
         </is>
       </c>
-      <c r="C349" s="2" t="inlineStr">
+      <c r="C349" t="inlineStr">
         <is>
           <t>error</t>
         </is>
       </c>
-      <c r="D349" s="2" t="n">
+      <c r="D349" t="n">
         <v>2</v>
       </c>
-      <c r="E349" s="2" t="inlineStr">
+      <c r="E349" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F349" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G349" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H349" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I349" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J349" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K349" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L349" s="2" t="inlineStr">
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G349" t="b">
+        <v>1</v>
+      </c>
+      <c r="H349" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I349" t="b">
+        <v>1</v>
+      </c>
+      <c r="J349" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K349" t="b">
+        <v>1</v>
+      </c>
+      <c r="L349" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -18621,7 +18621,7 @@
       </c>
       <c r="F350" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G350" s="2" t="b">
@@ -18633,11 +18633,11 @@
         </is>
       </c>
       <c r="I350" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J350" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K350" s="2" t="b">
@@ -18645,7 +18645,7 @@
       </c>
       <c r="L350" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -18673,7 +18673,7 @@
       </c>
       <c r="F351" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G351" s="2" t="b">
@@ -18685,11 +18685,11 @@
         </is>
       </c>
       <c r="I351" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J351" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K351" s="2" t="b">
@@ -18697,7 +18697,7 @@
       </c>
       <c r="L351" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -18933,7 +18933,7 @@
       </c>
       <c r="F356" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G356" s="2" t="b">
@@ -18957,7 +18957,7 @@
       </c>
       <c r="L356" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -20649,7 +20649,7 @@
       </c>
       <c r="F389" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G389" s="2" t="b">
@@ -20673,7 +20673,7 @@
       </c>
       <c r="L389" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -20753,7 +20753,7 @@
       </c>
       <c r="F391" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G391" s="2" t="b">
@@ -20777,7 +20777,7 @@
       </c>
       <c r="L391" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -20805,7 +20805,7 @@
       </c>
       <c r="F392" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G392" s="2" t="b">
@@ -20829,7 +20829,7 @@
       </c>
       <c r="L392" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -20961,7 +20961,7 @@
       </c>
       <c r="F395" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G395" s="2" t="b">
@@ -20985,7 +20985,7 @@
       </c>
       <c r="L395" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -21221,7 +21221,7 @@
       </c>
       <c r="F400" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G400" s="2" t="b">
@@ -21245,7 +21245,7 @@
       </c>
       <c r="L400" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -21325,7 +21325,7 @@
       </c>
       <c r="F402" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G402" s="2" t="b">
@@ -21349,7 +21349,7 @@
       </c>
       <c r="L402" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -21614,312 +21614,312 @@
       </c>
     </row>
     <row r="408">
-      <c r="A408" s="2" t="n">
+      <c r="A408" t="n">
         <v>37</v>
       </c>
-      <c r="B408" s="2" t="inlineStr">
+      <c r="B408" t="inlineStr">
         <is>
           <t>Aircraft in Restricted Zones Check map to find Recommended Zones .</t>
         </is>
       </c>
-      <c r="C408" s="2" t="inlineStr">
+      <c r="C408" t="inlineStr">
         <is>
           <t>Check</t>
         </is>
       </c>
-      <c r="D408" s="2" t="n">
+      <c r="D408" t="n">
         <v>4</v>
       </c>
-      <c r="E408" s="2" t="inlineStr">
+      <c r="E408" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F408" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G408" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H408" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I408" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J408" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K408" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L408" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G408" t="b">
+        <v>1</v>
+      </c>
+      <c r="H408" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I408" t="b">
+        <v>1</v>
+      </c>
+      <c r="J408" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K408" t="b">
+        <v>1</v>
+      </c>
+      <c r="L408" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="409">
-      <c r="A409" s="2" t="n">
+      <c r="A409" t="n">
         <v>37</v>
       </c>
-      <c r="B409" s="2" t="inlineStr">
+      <c r="B409" t="inlineStr">
         <is>
           <t>Aircraft in Restricted Zones Check map to find Recommended Zones .</t>
         </is>
       </c>
-      <c r="C409" s="2" t="inlineStr">
+      <c r="C409" t="inlineStr">
         <is>
           <t>map</t>
         </is>
       </c>
-      <c r="D409" s="2" t="n">
+      <c r="D409" t="n">
         <v>5</v>
       </c>
-      <c r="E409" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F409" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G409" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H409" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I409" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J409" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K409" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L409" s="2" t="inlineStr">
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F409" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G409" t="b">
+        <v>1</v>
+      </c>
+      <c r="H409" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I409" t="b">
+        <v>1</v>
+      </c>
+      <c r="J409" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K409" t="b">
+        <v>1</v>
+      </c>
+      <c r="L409" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="410">
-      <c r="A410" s="2" t="n">
+      <c r="A410" t="n">
         <v>37</v>
       </c>
-      <c r="B410" s="2" t="inlineStr">
+      <c r="B410" t="inlineStr">
         <is>
           <t>Aircraft in Restricted Zones Check map to find Recommended Zones .</t>
         </is>
       </c>
-      <c r="C410" s="2" t="inlineStr">
+      <c r="C410" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D410" s="2" t="n">
+      <c r="D410" t="n">
         <v>6</v>
       </c>
-      <c r="E410" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F410" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G410" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H410" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I410" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J410" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K410" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L410" s="2" t="inlineStr">
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G410" t="b">
+        <v>1</v>
+      </c>
+      <c r="H410" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I410" t="b">
+        <v>1</v>
+      </c>
+      <c r="J410" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K410" t="b">
+        <v>1</v>
+      </c>
+      <c r="L410" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="411">
-      <c r="A411" s="2" t="n">
+      <c r="A411" t="n">
         <v>37</v>
       </c>
-      <c r="B411" s="2" t="inlineStr">
+      <c r="B411" t="inlineStr">
         <is>
           <t>Aircraft in Restricted Zones Check map to find Recommended Zones .</t>
         </is>
       </c>
-      <c r="C411" s="2" t="inlineStr">
+      <c r="C411" t="inlineStr">
         <is>
           <t>find</t>
         </is>
       </c>
-      <c r="D411" s="2" t="n">
+      <c r="D411" t="n">
         <v>7</v>
       </c>
-      <c r="E411" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F411" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G411" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H411" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I411" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J411" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K411" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L411" s="2" t="inlineStr">
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F411" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G411" t="b">
+        <v>1</v>
+      </c>
+      <c r="H411" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I411" t="b">
+        <v>1</v>
+      </c>
+      <c r="J411" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K411" t="b">
+        <v>1</v>
+      </c>
+      <c r="L411" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="412">
-      <c r="A412" s="2" t="n">
+      <c r="A412" t="n">
         <v>37</v>
       </c>
-      <c r="B412" s="2" t="inlineStr">
+      <c r="B412" t="inlineStr">
         <is>
           <t>Aircraft in Restricted Zones Check map to find Recommended Zones .</t>
         </is>
       </c>
-      <c r="C412" s="2" t="inlineStr">
+      <c r="C412" t="inlineStr">
         <is>
           <t>Recommended</t>
         </is>
       </c>
-      <c r="D412" s="2" t="n">
+      <c r="D412" t="n">
         <v>8</v>
       </c>
-      <c r="E412" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F412" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G412" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H412" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I412" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J412" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K412" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L412" s="2" t="inlineStr">
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G412" t="b">
+        <v>1</v>
+      </c>
+      <c r="H412" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I412" t="b">
+        <v>1</v>
+      </c>
+      <c r="J412" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K412" t="b">
+        <v>1</v>
+      </c>
+      <c r="L412" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="413">
-      <c r="A413" s="2" t="n">
+      <c r="A413" t="n">
         <v>37</v>
       </c>
-      <c r="B413" s="2" t="inlineStr">
+      <c r="B413" t="inlineStr">
         <is>
           <t>Aircraft in Restricted Zones Check map to find Recommended Zones .</t>
         </is>
       </c>
-      <c r="C413" s="2" t="inlineStr">
+      <c r="C413" t="inlineStr">
         <is>
           <t>Zones</t>
         </is>
       </c>
-      <c r="D413" s="2" t="n">
+      <c r="D413" t="n">
         <v>9</v>
       </c>
-      <c r="E413" s="2" t="inlineStr">
+      <c r="E413" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F413" s="2" t="inlineStr">
+      <c r="F413" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G413" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H413" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I413" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J413" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K413" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L413" s="2" t="inlineStr">
+      <c r="G413" t="b">
+        <v>1</v>
+      </c>
+      <c r="H413" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I413" t="b">
+        <v>1</v>
+      </c>
+      <c r="J413" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K413" t="b">
+        <v>1</v>
+      </c>
+      <c r="L413" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -22654,208 +22654,208 @@
       </c>
     </row>
     <row r="428">
-      <c r="A428" s="2" t="n">
+      <c r="A428" t="n">
         <v>39</v>
       </c>
-      <c r="B428" s="2" t="inlineStr">
+      <c r="B428" t="inlineStr">
         <is>
           <t>Compass data error Please contact DJI Support .</t>
         </is>
       </c>
-      <c r="C428" s="2" t="inlineStr">
+      <c r="C428" t="inlineStr">
         <is>
           <t>Please</t>
         </is>
       </c>
-      <c r="D428" s="2" t="n">
+      <c r="D428" t="n">
         <v>3</v>
       </c>
-      <c r="E428" s="2" t="inlineStr">
+      <c r="E428" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F428" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G428" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H428" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I428" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J428" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K428" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L428" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
+      <c r="F428" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G428" t="b">
+        <v>1</v>
+      </c>
+      <c r="H428" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I428" t="b">
+        <v>1</v>
+      </c>
+      <c r="J428" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K428" t="b">
+        <v>1</v>
+      </c>
+      <c r="L428" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="429">
-      <c r="A429" s="2" t="n">
+      <c r="A429" t="n">
         <v>39</v>
       </c>
-      <c r="B429" s="2" t="inlineStr">
+      <c r="B429" t="inlineStr">
         <is>
           <t>Compass data error Please contact DJI Support .</t>
         </is>
       </c>
-      <c r="C429" s="2" t="inlineStr">
+      <c r="C429" t="inlineStr">
         <is>
           <t>contact</t>
         </is>
       </c>
-      <c r="D429" s="2" t="n">
+      <c r="D429" t="n">
         <v>4</v>
       </c>
-      <c r="E429" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F429" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G429" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H429" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I429" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J429" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K429" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L429" s="2" t="inlineStr">
+      <c r="E429" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F429" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G429" t="b">
+        <v>1</v>
+      </c>
+      <c r="H429" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I429" t="b">
+        <v>1</v>
+      </c>
+      <c r="J429" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K429" t="b">
+        <v>1</v>
+      </c>
+      <c r="L429" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="430">
-      <c r="A430" s="2" t="n">
+      <c r="A430" t="n">
         <v>39</v>
       </c>
-      <c r="B430" s="2" t="inlineStr">
+      <c r="B430" t="inlineStr">
         <is>
           <t>Compass data error Please contact DJI Support .</t>
         </is>
       </c>
-      <c r="C430" s="2" t="inlineStr">
+      <c r="C430" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D430" s="2" t="n">
+      <c r="D430" t="n">
         <v>5</v>
       </c>
-      <c r="E430" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F430" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G430" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H430" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I430" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J430" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K430" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L430" s="2" t="inlineStr">
+      <c r="E430" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F430" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G430" t="b">
+        <v>1</v>
+      </c>
+      <c r="H430" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I430" t="b">
+        <v>1</v>
+      </c>
+      <c r="J430" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K430" t="b">
+        <v>1</v>
+      </c>
+      <c r="L430" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="431">
-      <c r="A431" s="2" t="n">
+      <c r="A431" t="n">
         <v>39</v>
       </c>
-      <c r="B431" s="2" t="inlineStr">
+      <c r="B431" t="inlineStr">
         <is>
           <t>Compass data error Please contact DJI Support .</t>
         </is>
       </c>
-      <c r="C431" s="2" t="inlineStr">
+      <c r="C431" t="inlineStr">
         <is>
           <t>Support</t>
         </is>
       </c>
-      <c r="D431" s="2" t="n">
+      <c r="D431" t="n">
         <v>6</v>
       </c>
-      <c r="E431" s="2" t="inlineStr">
+      <c r="E431" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F431" s="2" t="inlineStr">
+      <c r="F431" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G431" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H431" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I431" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J431" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K431" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L431" s="2" t="inlineStr">
+      <c r="G431" t="b">
+        <v>1</v>
+      </c>
+      <c r="H431" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I431" t="b">
+        <v>1</v>
+      </c>
+      <c r="J431" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K431" t="b">
+        <v>1</v>
+      </c>
+      <c r="L431" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -22914,676 +22914,676 @@
       </c>
     </row>
     <row r="433">
-      <c r="A433" t="n">
+      <c r="A433" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="B433" t="inlineStr">
+      <c r="B433" s="2" t="inlineStr">
         <is>
           <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
-      <c r="C433" t="inlineStr">
+      <c r="C433" s="2" t="inlineStr">
         <is>
           <t>Extended</t>
         </is>
       </c>
-      <c r="D433" t="n">
-        <v>0</v>
-      </c>
-      <c r="E433" t="inlineStr">
+      <c r="D433" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E433" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F433" t="inlineStr">
+      <c r="F433" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G433" t="b">
-        <v>1</v>
-      </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I433" t="b">
-        <v>1</v>
-      </c>
-      <c r="J433" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K433" t="b">
-        <v>1</v>
-      </c>
-      <c r="L433" t="inlineStr">
+      <c r="G433" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H433" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I433" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J433" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K433" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L433" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="434">
-      <c r="A434" t="n">
+      <c r="A434" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="B434" t="inlineStr">
+      <c r="B434" s="2" t="inlineStr">
         <is>
           <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
-      <c r="C434" t="inlineStr">
+      <c r="C434" s="2" t="inlineStr">
         <is>
           <t>flight</t>
         </is>
       </c>
-      <c r="D434" t="n">
-        <v>1</v>
-      </c>
-      <c r="E434" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F434" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G434" t="b">
-        <v>1</v>
-      </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I434" t="b">
-        <v>1</v>
-      </c>
-      <c r="J434" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K434" t="b">
-        <v>1</v>
-      </c>
-      <c r="L434" t="inlineStr">
+      <c r="D434" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E434" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F434" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G434" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H434" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I434" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J434" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K434" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L434" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="435">
-      <c r="A435" t="n">
+      <c r="A435" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="B435" t="inlineStr">
+      <c r="B435" s="2" t="inlineStr">
         <is>
           <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
-      <c r="C435" t="inlineStr">
+      <c r="C435" s="2" t="inlineStr">
         <is>
           <t>distance</t>
         </is>
       </c>
-      <c r="D435" t="n">
+      <c r="D435" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E435" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F435" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G435" t="b">
-        <v>1</v>
-      </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I435" t="b">
-        <v>1</v>
-      </c>
-      <c r="J435" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K435" t="b">
-        <v>1</v>
-      </c>
-      <c r="L435" t="inlineStr">
+      <c r="E435" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F435" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G435" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H435" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I435" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J435" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K435" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L435" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="436">
-      <c r="A436" t="n">
+      <c r="A436" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="B436" t="inlineStr">
+      <c r="B436" s="2" t="inlineStr">
         <is>
           <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
-      <c r="C436" t="inlineStr">
+      <c r="C436" s="2" t="inlineStr">
         <is>
           <t>detected</t>
         </is>
       </c>
-      <c r="D436" t="n">
+      <c r="D436" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E436" t="inlineStr">
+      <c r="E436" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F436" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G436" t="b">
-        <v>1</v>
-      </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I436" t="b">
-        <v>1</v>
-      </c>
-      <c r="J436" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K436" t="b">
-        <v>1</v>
-      </c>
-      <c r="L436" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F436" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G436" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H436" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I436" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J436" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K436" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L436" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="437">
-      <c r="A437" t="n">
+      <c r="A437" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="B437" t="inlineStr">
+      <c r="B437" s="2" t="inlineStr">
         <is>
           <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
-      <c r="C437" t="inlineStr">
+      <c r="C437" s="2" t="inlineStr">
         <is>
           <t>Always</t>
         </is>
       </c>
-      <c r="D437" t="n">
+      <c r="D437" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E437" t="inlineStr">
+      <c r="E437" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F437" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G437" t="b">
-        <v>1</v>
-      </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I437" t="b">
-        <v>1</v>
-      </c>
-      <c r="J437" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K437" t="b">
-        <v>1</v>
-      </c>
-      <c r="L437" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F437" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G437" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H437" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I437" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J437" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K437" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L437" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="438">
-      <c r="A438" t="n">
+      <c r="A438" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="B438" t="inlineStr">
+      <c r="B438" s="2" t="inlineStr">
         <is>
           <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
-      <c r="C438" t="inlineStr">
+      <c r="C438" s="2" t="inlineStr">
         <is>
           <t>maintain</t>
         </is>
       </c>
-      <c r="D438" t="n">
+      <c r="D438" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E438" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F438" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G438" t="b">
-        <v>1</v>
-      </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I438" t="b">
-        <v>1</v>
-      </c>
-      <c r="J438" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K438" t="b">
-        <v>1</v>
-      </c>
-      <c r="L438" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E438" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F438" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G438" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H438" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I438" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J438" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K438" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L438" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="439">
-      <c r="A439" t="n">
+      <c r="A439" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="B439" t="inlineStr">
+      <c r="B439" s="2" t="inlineStr">
         <is>
           <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
-      <c r="C439" t="inlineStr">
+      <c r="C439" s="2" t="inlineStr">
         <is>
           <t>visual</t>
         </is>
       </c>
-      <c r="D439" t="n">
+      <c r="D439" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E439" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F439" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G439" t="b">
-        <v>1</v>
-      </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I439" t="b">
-        <v>1</v>
-      </c>
-      <c r="J439" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K439" t="b">
-        <v>1</v>
-      </c>
-      <c r="L439" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E439" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F439" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G439" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H439" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I439" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J439" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K439" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L439" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="440">
-      <c r="A440" t="n">
+      <c r="A440" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="B440" t="inlineStr">
+      <c r="B440" s="2" t="inlineStr">
         <is>
           <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
-      <c r="C440" t="inlineStr">
+      <c r="C440" s="2" t="inlineStr">
         <is>
           <t>line</t>
         </is>
       </c>
-      <c r="D440" t="n">
+      <c r="D440" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E440" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F440" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G440" t="b">
-        <v>1</v>
-      </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I440" t="b">
-        <v>1</v>
-      </c>
-      <c r="J440" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K440" t="b">
-        <v>1</v>
-      </c>
-      <c r="L440" t="inlineStr">
+      <c r="E440" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F440" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G440" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H440" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I440" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J440" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K440" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L440" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="441">
-      <c r="A441" t="n">
+      <c r="A441" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="B441" t="inlineStr">
+      <c r="B441" s="2" t="inlineStr">
         <is>
           <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
-      <c r="C441" t="inlineStr">
+      <c r="C441" s="2" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D441" t="n">
+      <c r="D441" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E441" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F441" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G441" t="b">
-        <v>1</v>
-      </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I441" t="b">
-        <v>1</v>
-      </c>
-      <c r="J441" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K441" t="b">
-        <v>1</v>
-      </c>
-      <c r="L441" t="inlineStr">
+      <c r="E441" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F441" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G441" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H441" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I441" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J441" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K441" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L441" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="442">
-      <c r="A442" t="n">
+      <c r="A442" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="B442" t="inlineStr">
+      <c r="B442" s="2" t="inlineStr">
         <is>
           <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
-      <c r="C442" t="inlineStr">
+      <c r="C442" s="2" t="inlineStr">
         <is>
           <t>sight</t>
         </is>
       </c>
-      <c r="D442" t="n">
+      <c r="D442" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E442" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F442" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G442" t="b">
-        <v>1</v>
-      </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I442" t="b">
-        <v>1</v>
-      </c>
-      <c r="J442" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K442" t="b">
-        <v>1</v>
-      </c>
-      <c r="L442" t="inlineStr">
+      <c r="E442" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F442" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G442" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H442" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I442" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J442" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K442" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L442" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="443">
-      <c r="A443" t="n">
+      <c r="A443" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="B443" t="inlineStr">
+      <c r="B443" s="2" t="inlineStr">
         <is>
           <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
-      <c r="C443" t="inlineStr">
+      <c r="C443" s="2" t="inlineStr">
         <is>
           <t>unless</t>
         </is>
       </c>
-      <c r="D443" t="n">
+      <c r="D443" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E443" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F443" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G443" t="b">
-        <v>1</v>
-      </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I443" t="b">
-        <v>1</v>
-      </c>
-      <c r="J443" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K443" t="b">
-        <v>1</v>
-      </c>
-      <c r="L443" t="inlineStr">
+      <c r="E443" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F443" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G443" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H443" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I443" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J443" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K443" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L443" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="444">
-      <c r="A444" t="n">
+      <c r="A444" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="B444" t="inlineStr">
+      <c r="B444" s="2" t="inlineStr">
         <is>
           <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
-      <c r="C444" t="inlineStr">
+      <c r="C444" s="2" t="inlineStr">
         <is>
           <t>otherwise</t>
         </is>
       </c>
-      <c r="D444" t="n">
+      <c r="D444" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E444" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F444" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G444" t="b">
-        <v>1</v>
-      </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I444" t="b">
-        <v>1</v>
-      </c>
-      <c r="J444" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K444" t="b">
-        <v>1</v>
-      </c>
-      <c r="L444" t="inlineStr">
+      <c r="E444" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F444" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G444" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H444" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I444" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J444" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K444" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L444" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="445">
-      <c r="A445" t="n">
+      <c r="A445" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="B445" t="inlineStr">
+      <c r="B445" s="2" t="inlineStr">
         <is>
           <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
-      <c r="C445" t="inlineStr">
+      <c r="C445" s="2" t="inlineStr">
         <is>
           <t>authorized</t>
         </is>
       </c>
-      <c r="D445" t="n">
+      <c r="D445" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E445" t="inlineStr">
+      <c r="E445" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F445" t="inlineStr">
+      <c r="F445" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G445" t="b">
-        <v>1</v>
-      </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I445" t="b">
-        <v>1</v>
-      </c>
-      <c r="J445" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K445" t="b">
-        <v>1</v>
-      </c>
-      <c r="L445" t="inlineStr">
+      <c r="G445" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H445" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I445" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J445" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K445" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L445" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -24734,366 +24734,366 @@
       </c>
     </row>
     <row r="468">
-      <c r="A468" t="n">
+      <c r="A468" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="B468" t="inlineStr">
+      <c r="B468" s="2" t="inlineStr">
         <is>
           <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C468" t="inlineStr">
+      <c r="C468" s="2" t="inlineStr">
         <is>
           <t>Cool</t>
         </is>
       </c>
-      <c r="D468" t="n">
+      <c r="D468" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E468" t="inlineStr">
+      <c r="E468" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F468" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G468" t="b">
-        <v>1</v>
-      </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I468" t="b">
-        <v>1</v>
-      </c>
-      <c r="J468" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K468" t="b">
-        <v>1</v>
-      </c>
-      <c r="L468" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F468" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G468" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H468" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I468" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J468" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K468" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L468" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="469">
-      <c r="A469" t="n">
+      <c r="A469" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="B469" t="inlineStr">
+      <c r="B469" s="2" t="inlineStr">
         <is>
           <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C469" t="inlineStr">
+      <c r="C469" s="2" t="inlineStr">
         <is>
           <t>down</t>
         </is>
       </c>
-      <c r="D469" t="n">
+      <c r="D469" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E469" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F469" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G469" t="b">
-        <v>1</v>
-      </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I469" t="b">
-        <v>1</v>
-      </c>
-      <c r="J469" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K469" t="b">
-        <v>1</v>
-      </c>
-      <c r="L469" t="inlineStr">
+      <c r="E469" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F469" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G469" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H469" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I469" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J469" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K469" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L469" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="470">
-      <c r="A470" t="n">
+      <c r="A470" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="B470" t="inlineStr">
+      <c r="B470" s="2" t="inlineStr">
         <is>
           <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C470" t="inlineStr">
+      <c r="C470" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D470" t="n">
+      <c r="D470" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E470" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F470" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G470" t="b">
-        <v>1</v>
-      </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I470" t="b">
-        <v>1</v>
-      </c>
-      <c r="J470" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K470" t="b">
-        <v>1</v>
-      </c>
-      <c r="L470" t="inlineStr">
+      <c r="E470" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F470" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G470" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H470" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I470" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J470" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K470" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L470" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="471">
-      <c r="A471" t="n">
+      <c r="A471" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="B471" t="inlineStr">
+      <c r="B471" s="2" t="inlineStr">
         <is>
           <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C471" t="inlineStr">
+      <c r="C471" s="2" t="inlineStr">
         <is>
           <t>monitor</t>
         </is>
       </c>
-      <c r="D471" t="n">
+      <c r="D471" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E471" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F471" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G471" t="b">
-        <v>1</v>
-      </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I471" t="b">
-        <v>1</v>
-      </c>
-      <c r="J471" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K471" t="b">
-        <v>1</v>
-      </c>
-      <c r="L471" t="inlineStr">
+      <c r="E471" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F471" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G471" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H471" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I471" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J471" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K471" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L471" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="472">
-      <c r="A472" t="n">
+      <c r="A472" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="B472" t="inlineStr">
+      <c r="B472" s="2" t="inlineStr">
         <is>
           <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C472" t="inlineStr">
+      <c r="C472" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D472" t="n">
+      <c r="D472" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E472" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F472" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G472" t="b">
-        <v>1</v>
-      </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I472" t="b">
-        <v>1</v>
-      </c>
-      <c r="J472" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K472" t="b">
-        <v>1</v>
-      </c>
-      <c r="L472" t="inlineStr">
+      <c r="E472" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F472" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G472" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H472" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I472" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J472" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K472" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L472" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="473">
-      <c r="A473" t="n">
+      <c r="A473" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="B473" t="inlineStr">
+      <c r="B473" s="2" t="inlineStr">
         <is>
           <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C473" t="inlineStr">
+      <c r="C473" s="2" t="inlineStr">
         <is>
           <t>prevent</t>
         </is>
       </c>
-      <c r="D473" t="n">
+      <c r="D473" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E473" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F473" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G473" t="b">
-        <v>1</v>
-      </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I473" t="b">
-        <v>1</v>
-      </c>
-      <c r="J473" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K473" t="b">
-        <v>1</v>
-      </c>
-      <c r="L473" t="inlineStr">
+      <c r="E473" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F473" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G473" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H473" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I473" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J473" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K473" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L473" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="474">
-      <c r="A474" t="n">
+      <c r="A474" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="B474" t="inlineStr">
+      <c r="B474" s="2" t="inlineStr">
         <is>
           <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C474" t="inlineStr">
+      <c r="C474" s="2" t="inlineStr">
         <is>
           <t>overheating</t>
         </is>
       </c>
-      <c r="D474" t="n">
+      <c r="D474" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E474" t="inlineStr">
+      <c r="E474" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F474" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G474" t="b">
-        <v>1</v>
-      </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I474" t="b">
-        <v>1</v>
-      </c>
-      <c r="J474" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K474" t="b">
-        <v>1</v>
-      </c>
-      <c r="L474" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F474" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G474" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H474" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I474" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J474" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K474" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L474" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -25358,106 +25358,106 @@
       </c>
     </row>
     <row r="480">
-      <c r="A480" t="n">
+      <c r="A480" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="B480" t="inlineStr">
+      <c r="B480" s="2" t="inlineStr">
         <is>
           <t>Aircraft takeoff altitude error Restart aircraft .</t>
         </is>
       </c>
-      <c r="C480" t="inlineStr">
+      <c r="C480" s="2" t="inlineStr">
         <is>
           <t>Restart</t>
         </is>
       </c>
-      <c r="D480" t="n">
+      <c r="D480" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E480" t="inlineStr">
+      <c r="E480" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F480" t="inlineStr">
+      <c r="F480" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G480" t="b">
-        <v>1</v>
-      </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I480" t="b">
-        <v>1</v>
-      </c>
-      <c r="J480" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K480" t="b">
-        <v>1</v>
-      </c>
-      <c r="L480" t="inlineStr">
+      <c r="G480" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H480" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I480" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J480" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K480" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L480" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="481">
-      <c r="A481" t="n">
+      <c r="A481" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="B481" t="inlineStr">
+      <c r="B481" s="2" t="inlineStr">
         <is>
           <t>Aircraft takeoff altitude error Restart aircraft .</t>
         </is>
       </c>
-      <c r="C481" t="inlineStr">
+      <c r="C481" s="2" t="inlineStr">
         <is>
           <t>aircraft</t>
         </is>
       </c>
-      <c r="D481" t="n">
+      <c r="D481" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E481" t="inlineStr">
+      <c r="E481" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F481" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G481" t="b">
-        <v>1</v>
-      </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I481" t="b">
-        <v>1</v>
-      </c>
-      <c r="J481" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K481" t="b">
-        <v>1</v>
-      </c>
-      <c r="L481" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F481" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G481" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H481" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I481" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J481" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K481" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L481" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -25514,730 +25514,730 @@
       </c>
     </row>
     <row r="483">
-      <c r="A483" s="2" t="n">
+      <c r="A483" t="n">
         <v>45</v>
       </c>
-      <c r="B483" s="2" t="inlineStr">
+      <c r="B483" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C483" s="2" t="inlineStr">
+      <c r="C483" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="D483" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E483" s="2" t="inlineStr">
+      <c r="D483" t="n">
+        <v>0</v>
+      </c>
+      <c r="E483" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F483" s="2" t="inlineStr">
+      <c r="F483" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G483" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H483" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I483" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J483" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K483" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L483" s="2" t="inlineStr">
+      <c r="G483" t="b">
+        <v>1</v>
+      </c>
+      <c r="H483" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I483" t="b">
+        <v>1</v>
+      </c>
+      <c r="J483" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K483" t="b">
+        <v>1</v>
+      </c>
+      <c r="L483" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="484">
-      <c r="A484" s="2" t="n">
+      <c r="A484" t="n">
         <v>45</v>
       </c>
-      <c r="B484" s="2" t="inlineStr">
+      <c r="B484" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C484" s="2" t="inlineStr">
+      <c r="C484" t="inlineStr">
         <is>
           <t>card</t>
         </is>
       </c>
-      <c r="D484" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E484" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F484" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G484" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H484" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I484" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J484" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K484" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L484" s="2" t="inlineStr">
+      <c r="D484" t="n">
+        <v>1</v>
+      </c>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F484" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G484" t="b">
+        <v>1</v>
+      </c>
+      <c r="H484" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I484" t="b">
+        <v>1</v>
+      </c>
+      <c r="J484" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K484" t="b">
+        <v>1</v>
+      </c>
+      <c r="L484" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="485">
-      <c r="A485" s="2" t="n">
+      <c r="A485" t="n">
         <v>45</v>
       </c>
-      <c r="B485" s="2" t="inlineStr">
+      <c r="B485" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C485" s="2" t="inlineStr">
+      <c r="C485" t="inlineStr">
         <is>
           <t>write</t>
         </is>
       </c>
-      <c r="D485" s="2" t="n">
+      <c r="D485" t="n">
         <v>2</v>
       </c>
-      <c r="E485" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F485" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G485" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H485" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I485" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J485" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K485" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L485" s="2" t="inlineStr">
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F485" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G485" t="b">
+        <v>1</v>
+      </c>
+      <c r="H485" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I485" t="b">
+        <v>1</v>
+      </c>
+      <c r="J485" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K485" t="b">
+        <v>1</v>
+      </c>
+      <c r="L485" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="486">
-      <c r="A486" s="2" t="n">
+      <c r="A486" t="n">
         <v>45</v>
       </c>
-      <c r="B486" s="2" t="inlineStr">
+      <c r="B486" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C486" s="2" t="inlineStr">
+      <c r="C486" t="inlineStr">
         <is>
           <t>speed</t>
         </is>
       </c>
-      <c r="D486" s="2" t="n">
+      <c r="D486" t="n">
         <v>3</v>
       </c>
-      <c r="E486" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F486" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G486" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H486" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I486" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J486" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K486" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L486" s="2" t="inlineStr">
+      <c r="E486" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F486" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G486" t="b">
+        <v>1</v>
+      </c>
+      <c r="H486" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I486" t="b">
+        <v>1</v>
+      </c>
+      <c r="J486" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K486" t="b">
+        <v>1</v>
+      </c>
+      <c r="L486" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="487">
-      <c r="A487" s="2" t="n">
+      <c r="A487" t="n">
         <v>45</v>
       </c>
-      <c r="B487" s="2" t="inlineStr">
+      <c r="B487" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C487" s="2" t="inlineStr">
+      <c r="C487" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D487" s="2" t="n">
+      <c r="D487" t="n">
         <v>4</v>
       </c>
-      <c r="E487" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F487" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G487" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H487" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I487" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J487" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K487" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L487" s="2" t="inlineStr">
+      <c r="E487" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F487" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G487" t="b">
+        <v>1</v>
+      </c>
+      <c r="H487" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I487" t="b">
+        <v>1</v>
+      </c>
+      <c r="J487" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K487" t="b">
+        <v>1</v>
+      </c>
+      <c r="L487" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="488">
-      <c r="A488" s="2" t="n">
+      <c r="A488" t="n">
         <v>45</v>
       </c>
-      <c r="B488" s="2" t="inlineStr">
+      <c r="B488" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C488" s="2" t="inlineStr">
+      <c r="C488" t="inlineStr">
         <is>
           <t>too</t>
         </is>
       </c>
-      <c r="D488" s="2" t="n">
+      <c r="D488" t="n">
         <v>5</v>
       </c>
-      <c r="E488" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F488" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G488" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H488" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I488" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J488" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K488" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L488" s="2" t="inlineStr">
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F488" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G488" t="b">
+        <v>1</v>
+      </c>
+      <c r="H488" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I488" t="b">
+        <v>1</v>
+      </c>
+      <c r="J488" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K488" t="b">
+        <v>1</v>
+      </c>
+      <c r="L488" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="489">
-      <c r="A489" s="2" t="n">
+      <c r="A489" t="n">
         <v>45</v>
       </c>
-      <c r="B489" s="2" t="inlineStr">
+      <c r="B489" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C489" s="2" t="inlineStr">
+      <c r="C489" t="inlineStr">
         <is>
           <t>slow</t>
         </is>
       </c>
-      <c r="D489" s="2" t="n">
+      <c r="D489" t="n">
         <v>6</v>
       </c>
-      <c r="E489" s="2" t="inlineStr">
+      <c r="E489" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F489" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G489" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H489" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I489" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J489" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K489" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L489" s="2" t="inlineStr">
+      <c r="F489" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G489" t="b">
+        <v>1</v>
+      </c>
+      <c r="H489" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I489" t="b">
+        <v>1</v>
+      </c>
+      <c r="J489" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K489" t="b">
+        <v>1</v>
+      </c>
+      <c r="L489" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="490">
-      <c r="A490" t="n">
+      <c r="A490" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B490" t="inlineStr">
+      <c r="B490" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C490" t="inlineStr">
+      <c r="C490" s="2" t="inlineStr">
         <is>
           <t>Not</t>
         </is>
       </c>
-      <c r="D490" t="n">
+      <c r="D490" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E490" t="inlineStr">
+      <c r="E490" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F490" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G490" t="b">
-        <v>1</v>
-      </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I490" t="b">
-        <v>1</v>
-      </c>
-      <c r="J490" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K490" t="b">
-        <v>1</v>
-      </c>
-      <c r="L490" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F490" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G490" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H490" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I490" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J490" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K490" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L490" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="491">
-      <c r="A491" t="n">
+      <c r="A491" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B491" t="inlineStr">
+      <c r="B491" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C491" t="inlineStr">
+      <c r="C491" s="2" t="inlineStr">
         <is>
           <t>suitable</t>
         </is>
       </c>
-      <c r="D491" t="n">
+      <c r="D491" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E491" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F491" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G491" t="b">
-        <v>1</v>
-      </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I491" t="b">
-        <v>1</v>
-      </c>
-      <c r="J491" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K491" t="b">
-        <v>1</v>
-      </c>
-      <c r="L491" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E491" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F491" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G491" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H491" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I491" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J491" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K491" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L491" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="492">
-      <c r="A492" t="n">
+      <c r="A492" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B492" t="inlineStr">
+      <c r="B492" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C492" t="inlineStr">
+      <c r="C492" s="2" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D492" t="n">
+      <c r="D492" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E492" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F492" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G492" t="b">
-        <v>1</v>
-      </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I492" t="b">
-        <v>1</v>
-      </c>
-      <c r="J492" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K492" t="b">
-        <v>1</v>
-      </c>
-      <c r="L492" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E492" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F492" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G492" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H492" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I492" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J492" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K492" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L492" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="493">
-      <c r="A493" t="n">
+      <c r="A493" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B493" t="inlineStr">
+      <c r="B493" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C493" t="inlineStr">
+      <c r="C493" s="2" t="inlineStr">
         <is>
           <t>shooting</t>
         </is>
       </c>
-      <c r="D493" t="n">
+      <c r="D493" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E493" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F493" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G493" t="b">
-        <v>1</v>
-      </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I493" t="b">
-        <v>1</v>
-      </c>
-      <c r="J493" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K493" t="b">
-        <v>1</v>
-      </c>
-      <c r="L493" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E493" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F493" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G493" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H493" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I493" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J493" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K493" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L493" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="494">
-      <c r="A494" t="n">
+      <c r="A494" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B494" t="inlineStr">
+      <c r="B494" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C494" t="inlineStr">
+      <c r="C494" s="2" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D494" t="n">
+      <c r="D494" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E494" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F494" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G494" t="b">
-        <v>1</v>
-      </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I494" t="b">
-        <v>1</v>
-      </c>
-      <c r="J494" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K494" t="b">
-        <v>1</v>
-      </c>
-      <c r="L494" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E494" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F494" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G494" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H494" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I494" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J494" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K494" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L494" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="495">
-      <c r="A495" t="n">
+      <c r="A495" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B495" t="inlineStr">
+      <c r="B495" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C495" t="inlineStr">
+      <c r="C495" s="2" t="inlineStr">
         <is>
           <t>4K</t>
         </is>
       </c>
-      <c r="D495" t="n">
+      <c r="D495" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E495" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F495" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G495" t="b">
-        <v>1</v>
-      </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I495" t="b">
-        <v>1</v>
-      </c>
-      <c r="J495" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K495" t="b">
-        <v>1</v>
-      </c>
-      <c r="L495" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E495" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F495" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G495" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H495" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I495" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J495" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K495" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L495" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="496">
-      <c r="A496" t="n">
+      <c r="A496" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B496" t="inlineStr">
+      <c r="B496" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C496" t="inlineStr">
+      <c r="C496" s="2" t="inlineStr">
         <is>
           <t>video</t>
         </is>
       </c>
-      <c r="D496" t="n">
+      <c r="D496" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E496" t="inlineStr">
+      <c r="E496" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F496" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G496" t="b">
-        <v>1</v>
-      </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I496" t="b">
-        <v>1</v>
-      </c>
-      <c r="J496" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K496" t="b">
-        <v>1</v>
-      </c>
-      <c r="L496" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F496" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G496" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H496" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I496" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J496" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K496" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L496" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
